--- a/artifacts/recipes/new_data/allrecipescom/mexican/mexican_burritos.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/mexican/mexican_burritos.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699641152-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Burritos</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699641162-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/fIs76mM-7ta6Pmqyn46nGySlo9g=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/741734-9e7ca21324c94473a510e11274666ac6.jpg"
@@ -203,59 +544,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/203299/bean-and-honey-burrito-casserole/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Bean and Honey Burrito Casserole</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr 5 mins\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups cooked yellow rice\n\n\n1  serving cooking spray\n\n\n8 (8 inch) flour tortillas\n\n\n¼ cup prepared yellow mustard\n\n\n¼ cup sour cream\n\n\n⅓ cup honey\n\n\n½ cup diced red bell pepper\n\n\n½ cup diced green bell pepper\n\n\n1 (15 ounce) can garbanzo beans, drained\n\n\n1 (15 ounce) can black beans, rinsed and drained\n\n\n1 cup corn kernels\n\n\n2 cups shredded cooked chicken\n\n\n½ cup shredded mozzarella cheese\n\n\n½ cup shredded Cheddar cheese\n\n\n1 ½ teaspoons ground cumin\n\n\n1 tablespoon honey"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups cooked yellow rice\n\n\n1  serving cooking spray\n\n\n8 (8 inch) flour tortillas\n\n\n¼ cup prepared yellow mustard\n\n\n¼ cup sour cream\n\n\n⅓ cup honey\n\n\n½ cup diced red bell pepper\n\n\n½ cup diced green bell pepper\n\n\n1 (15 ounce) can garbanzo beans, drained\n\n\n1 (15 ounce) can black beans, rinsed and drained\n\n\n1 cup corn kernels\n\n\n2 cups shredded cooked chicken\n\n\n½ cup shredded mozzarella cheese\n\n\n½ cup shredded Cheddar cheese\n\n\n1 ½ teaspoons ground cumin\n\n\n1 tablespoon honey'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Prepare yellow rice as directed on package; reserve 1 1/2 cups. Refrigerate any remaining rice for another use."},{"recipe_directions":"Preheat oven to 375 degrees F (190 degrees C). Spray a 9x13 inch baking dish with cooking spray."},{"recipe_directions":"Line bottom of baking dish with 4 tortillas. To make the honey sauce, whisk together the mustard, sour cream, and 1/3 cup honey in a small bowl. Combine the red pepper, green pepper, garbanzo beans, black beans, and corn in a large bowl. Scoop out 1/2 cup of the bean mixture and reserve for topping."},{"recipe_directions":"Stir the chicken, 1/4 cup mozzarella cheese, 1/4 cup Cheddar cheese, cumin, yellow rice, and honey sauce into the bean mixture. Mix well. Pour mixture into the baking dish. Top with 4 tortillas; sprinkle with the remaining 1/4 cup mozzarella cheese, 1/4 cup Cheddar cheese, and the reserved 1/2 cup bean mixture."},{"recipe_directions":"Bake in preheated oven until hot and bubbly, 30 to 45 minutes. Cover with aluminum foil if top browns excessively. Remove from oven, drizzle with the remaining 2 tablespoons of honey."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"446\nCalories\n\n\n13g \nFat\n\n\n63g \nCarbs\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699641168-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/GnGa9i67Q77t2pOttgoq7a6zXPk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/147442-eea3b372708c46d892efff9baf663a6f.jpg"
@@ -268,59 +605,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21153/tomato-spinach-and-bean-burrito/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Tomato Spinach and Bean Burrito</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n1 cup diced onion\n\n\n3 cloves garlic, minced\n\n\n2 tablespoons chili powder, or to taste\n\n\n1 teaspoon ground cumin\n\n\n¼ cup water\n\n\n4 cups chopped fresh tomatoes\n\n\n1 (15 ounce) can kidney beans, drained and rinsed\n\n\n  salt to taste\n\n\n1 (10 ounce) package frozen chopped spinach, thawed and drained\n\n\n4 (10 inch) flour tortillas\n\n\n1  ripe avocado, sliced\n\n\n4 tablespoons sour cream\n\n\n4 tablespoons salsa"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n1 cup diced onion\n\n\n3 cloves garlic, minced\n\n\n2 tablespoons chili powder, or to taste\n\n\n1 teaspoon ground cumin\n\n\n¼ cup water\n\n\n4 cups chopped fresh tomatoes\n\n\n1 (15 ounce) can kidney beans, drained and rinsed\n\n\n  salt to taste\n\n\n1 (10 ounce) package frozen chopped spinach, thawed and drained\n\n\n4 (10 inch) flour tortillas\n\n\n1  ripe avocado, sliced\n\n\n4 tablespoons sour cream\n\n\n4 tablespoons salsa'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a large skillet on medium-high heat. Saute onion and garlic for 5 minutes. Stir in chili powder and cumin, and cook 1 minute. Stir in water, tomato, kidney beans and salt. Bring to a boil, then reduce heat and simmer for 20 minutes."},{"recipe_directions":"Stir in spinach and cook 5 minutes more. Spoon 1/4 of the bean mixture into the middle of a warm tortilla. Wrap and garnish with avocado, sour cream and salsa."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"685\nCalories\n\n\n29g \nFat\n\n\n92g \nCarbs\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699641177-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -332,59 +665,55 @@
 Leftover Turkey Burritos</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/284576/leftover-turkey-burritos/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Leftover Turkey Burritos</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n10 \n\n\nYield:\n10 burritos"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"10 (10 inch) flour tortillas\n\n\n3 cups chopped cooked turkey\n\n\n1 (15 ounce) can black beans, drained\n\n\n1 (10 ounce) can diced tomatoes and green chiles (such as RO*TEL®)\n\n\n1 (4 ounce) can chopped green chiles, undrained\n\n\n1 teaspoon dried cilantro\n\n\n1 teaspoon ground ancho chile powder\n\n\n½ teaspoon garlic powder\n\n\n½ teaspoon salt\n\n\n1 (8 ounce) package shredded pepper Jack cheese"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '10 (10 inch) flour tortillas\n\n\n3 cups chopped cooked turkey\n\n\n1 (15 ounce) can black beans, drained\n\n\n1 (10 ounce) can diced tomatoes and green chiles (such as RO*TEL®)\n\n\n1 (4 ounce) can chopped green chiles, undrained\n\n\n1 teaspoon dried cilantro\n\n\n1 teaspoon ground ancho chile powder\n\n\n½ teaspoon garlic powder\n\n\n½ teaspoon salt\n\n\n1 (8 ounce) package shredded pepper Jack cheese'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Wrap tortillas in foil and place in the oven while preheating to warm."},{"recipe_directions":"Combine turkey, beans, diced tomatoes and green chiles, chopped green chiles, cilantro, ancho chile powder, garlic powder, and salt in a saucepan over medium heat; bring to a simmer and cook until all liquid evaporates, 5 to 8 minutes."},{"recipe_directions":"Remove burritos from the oven. Place turkey-bean mixture in the warmed tortillas, add pepper Jack cheese, and roll into burritos. Place in a baking pan."},{"recipe_directions":"Bake in the preheated oven until heated through, about 20 minutes."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Burrito Recipes"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"425\nCalories\n\n\n15g \nFat\n\n\n46g \nCarbs\n\n\n26g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699641187-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/L4NvZgXRUYDG93TMimdjMV8_UTM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1023x0:1025x2):format(webp)/7101543-af31abb5949944f4822178220e86a6c8.jpg"
@@ -397,59 +726,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/276259/full-of-veggies-burritos/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Full-of-Veggies Burritos</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n8 \n\n\nYield:\n8 burritos"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon oil\n\n\n1 (8 ounce) package portobello mushrooms, chopped\n\n\n1  onion, diced\n\n\n1 (15 ounce) can black beans, rinsed and drained\n\n\n1 (14.5 ounce) can diced tomatoes, drained and 2 tablespoons juice reserved\n\n\n1 tablespoon chorizo sausage spice seasoning (such as Chimayo Chorizo Sausage Spice by Savory Spice Shop®)\n\n\n1 (16 ounce) bag chopped fresh spinach\n\n\n8 (10 inch) flour tortillas, warmed"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon oil\n\n\n1 (8 ounce) package portobello mushrooms, chopped\n\n\n1  onion, diced\n\n\n1 (15 ounce) can black beans, rinsed and drained\n\n\n1 (14.5 ounce) can diced tomatoes, drained and 2 tablespoons juice reserved\n\n\n1 tablespoon chorizo sausage spice seasoning (such as Chimayo Chorizo Sausage Spice by Savory Spice Shop®)\n\n\n1 (16 ounce) bag chopped fresh spinach\n\n\n8 (10 inch) flour tortillas, warmed'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a skillet over medium heat until sizzling. Add mushrooms and onion and cook until mushrooms begin to soften, about 5 minutes. Add beans, diced tomatoes, and 2 tablespoons reserved tomato juice. Season with chorizo sausage seasoning and cook, stirring constantly, about 4 minutes. Add spinach and cook until wilted, about 5 minutes."},{"recipe_directions":"Add a few tablespoons of the vegetable mixture to the middle of a warmed tortilla. Fold in the outer edges, beginning at the middle edge of tortilla, and fold inward towards the filling; continue rolling until filling is enclosed. Repeat with remaining tortillas and filling."},{"recipe_directions":"If you don't have the chorizo seasoning mix specified, you may use a mixture of chili powder, salt, sugar, Mexican oregano, cumin, garlic, and black pepper."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"325\nCalories\n\n\n8g \nFat\n\n\n52g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699641196-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hy9eXZx71JfDJsGfz_kqfiklcuk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2253182-8320306825ab4e748aebc3d957ad84d3.jpg"
@@ -462,59 +787,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/232325/yummy-chicken-burritos/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Yummy Chicken Burritos</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 1 hr 40 mins\n\n\nTotal Time:\n 2 hrs\n\n\nServings:\n15 \n\n\nYield:\n15 servings"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  whole chicken\n\n\n1 (10 ounce) can diced tomatoes with habanero peppers (such as RO*TEL® Hot)\n\n\n1  green bell pepper, diced\n\n\n1 large onion, diced\n\n\n3  jalapeno chile peppers, seeded and diced\n\n\n2 (1 ounce) packets taco seasoning mix, divided\n\n\n2 tablespoons canola oil, or as needed\n\n\n1 (15 ounce) package flour tortillas"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  whole chicken\n\n\n1 (10 ounce) can diced tomatoes with habanero peppers (such as RO*TEL® Hot)\n\n\n1  green bell pepper, diced\n\n\n1 large onion, diced\n\n\n3  jalapeno chile peppers, seeded and diced\n\n\n2 (1 ounce) packets taco seasoning mix, divided\n\n\n2 tablespoons canola oil, or as needed\n\n\n1 (15 ounce) package flour tortillas'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place chicken, tomatoes with habanero peppers, green bell pepper, onion, jalapeno chile peppers, and 1 packet taco seasoning in a large pot; pour in enough water to just cover chicken."},{"recipe_directions":"Bring chicken and vegetables to a boil, reduce heat to low, and simmer until chicken is no longer pink inside, about 1 1/2 hours. An instant-read thermometer inserted into the thickest part of the thigh, near the bone, should read 165 degrees F (74 degrees C)."},{"recipe_directions":"Remove chicken from the pot and let cool. Pull chicken meat off the bones and cut into bite-sized pieces; discard carcass. Pour off about half the liquid from the pot, making sure all the vegetables stay. Return chicken meat to pot; add the remaining 1 packet taco seasoning. Simmer until flavors have blended, about 10 minutes."},{"recipe_directions":"Heat canola oil in a large skillet over medium heat; fry tortillas, working in batches, in the hot oil until desired crispness is reached, 1 to 2 minutes per side. Spoon chicken mixture into each tortilla to serve."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"219\nCalories\n\n\n10g \nFat\n\n\n21g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699641203-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/XUrN4YKykw1ImlxMq9r9l52xMuk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2055840-8e90898fcac44839932c56250fd299c5.jpg"
@@ -527,59 +848,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/241097/appetizing-vegetarian-burritos/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Appetizing Vegetarian Burritos</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n1 bunch celery, sliced\n\n\n1 large onion, chopped\n\n\n2 tablespoons chili powder\n\n\n1 tablespoon ground cumin\n\n\n2 cloves garlic, minced, or more to taste\n\n\n1 (28 ounce) can diced tomatoes\n\n\n1 (15 ounce) can cannellini beans, drained and rinsed\n\n\n1 (15 ounce) can red kidney beans, drained and rinsed\n\n\n1 tablespoon lime juice, or to taste\n\n\n  hot sauce to taste\n\n\n  salt and ground black pepper to taste\n\n\n8 (10 inch) warm flour tortillas"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n1 bunch celery, sliced\n\n\n1 large onion, chopped\n\n\n2 tablespoons chili powder\n\n\n1 tablespoon ground cumin\n\n\n2 cloves garlic, minced, or more to taste\n\n\n1 (28 ounce) can diced tomatoes\n\n\n1 (15 ounce) can cannellini beans, drained and rinsed\n\n\n1 (15 ounce) can red kidney beans, drained and rinsed\n\n\n1 tablespoon lime juice, or to taste\n\n\n  hot sauce to taste\n\n\n  salt and ground black pepper to taste\n\n\n8 (10 inch) warm flour tortillas'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a large skillet over medium-high heat. Saute celery and onion in hot oil until onion starts to turn translucent, 5 to 7 minutes. Add chili powder and cumin; saute until onion is soft, about 5 minutes more. Stir garlic into onion mixture and saute until fragrant, about 30 seconds."},{"recipe_directions":"Stir tomatoes into onion mixture; bring to a simmer, reduce heat to medium, and cook and stir until liquid is mostly evaporated and mixture is thick, 5 to 10 minutes."},{"recipe_directions":"Mix cannellini beans and red kidney beans into tomato mixture; cook until bean filling is heated through, 5 to 10 minutes. Season filling with lime juice, hot sauce, salt, and black pepper."},{"recipe_directions":"Spoon filling in a line across the middle of a tortilla. Fold opposing edges of the tortilla to overlap the filling. Roll 1 of the opposing edges around the filling into a burrito. Repeat with remaining filling and tortillas."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"382\nCalories\n\n\n10g \nFat\n\n\n60g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699641209-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -593,59 +910,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/282860/make-ahead-burritos/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Make-Ahead Burritos</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n40 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 3 hrs\n\n\nServings:\n16 \n\n\nYield:\n16 burritos"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup uncooked brown rice\n\n\n4 cups water\n\n\n4 (1 ounce) envelopes taco seasoning mix\n\n\n4 (15 ounce) cans black beans, rinsed and drained\n\n\n2 (15 ounce) cans pinto beans, rinsed and drained\n\n\n1 (10 ounce) can whole kernel corn, drained\n\n\n1 (10 ounce) container salsa\n\n\n1 medium onion, chopped\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon garlic powder\n\n\n1 teaspoon dried oregano\n\n\n  salt and ground black pepper to taste\n\n\n16 (10 inch) flour tortillas\n\n\n1 cup shredded reduced-fat Cheddar cheese\n\n\n1 cup shredded reduced-fat Monterey Jack cheese\n\n\n  cooking spray"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup uncooked brown rice\n\n\n4 cups water\n\n\n4 (1 ounce) envelopes taco seasoning mix\n\n\n4 (15 ounce) cans black beans, rinsed and drained\n\n\n2 (15 ounce) cans pinto beans, rinsed and drained\n\n\n1 (10 ounce) can whole kernel corn, drained\n\n\n1 (10 ounce) container salsa\n\n\n1 medium onion, chopped\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon garlic powder\n\n\n1 teaspoon dried oregano\n\n\n  salt and ground black pepper to taste\n\n\n16 (10 inch) flour tortillas\n\n\n1 cup shredded reduced-fat Cheddar cheese\n\n\n1 cup shredded reduced-fat Monterey Jack cheese\n\n\n  cooking spray'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine rice, water, and taco seasoning in a saucepan; bring to a boil. Reduce heat to low, cover, and simmer until tender, 35 to 40 minutes. Remove from the heat and let cool; it will be soggy."},{"recipe_directions":"Combine black beans, pinto beans, corn, salsa, onion, cumin, garlic powder, oregano, salt, and pepper in a large bowl; toss to mix. Mix in cooked rice, Cheddar, and Monterey Jack."},{"recipe_directions":"Divide the bean-rice mixture evenly among the tortillas and roll up."},{"recipe_directions":"Spray a cookie sheet lightly with cooking spray. Lay tortillas in a single layer on the cookie sheet and place in the freezer until fully frozen, about 2 hours. Wrap each tortilla in plastic wrap or foil and place in a large zip-top bag to store in the freezer until ready to use."},{"recipe_directions":"To serve, unwrap a burrito and place on a microwave-safe plate. Microwave on high for 2 minutes. Or, place a foil-wrapped burrito on a baking sheet and bake in a 350 degrees F (175 degrees C) oven for 10 minutes."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"470\nCalories\n\n\n9g \nFat\n\n\n79g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699641215-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/5vm56SyNxjDSgHAat64JxifBPjE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2591x0:2593x2):format(webp)/7111531-bca7421d8ca74020afb8b38fd8e4d011.jpg"
@@ -658,59 +971,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/276266/vegan-sweet-potato-and-bean-burritos/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Vegan Sweet Potato and Bean Burritos</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4 \n\n\nYield:\n4 burritos"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup sweet potato, peeled and cut into 1/4-inch cubes\n\n\n½ cup yellow onion, sliced\n\n\n2 tablespoons olive oil\n\n\n1 tablespoon taco seasoning mix\n\n\n½ cup vegan refried beans\n\n\n4 large vegan tortillas\n\n\n1 cup cooked brown rice\n\n\n¼ cup salsa"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup sweet potato, peeled and cut into 1/4-inch cubes\n\n\n½ cup yellow onion, sliced\n\n\n2 tablespoons olive oil\n\n\n1 tablespoon taco seasoning mix\n\n\n½ cup vegan refried beans\n\n\n4 large vegan tortillas\n\n\n1 cup cooked brown rice\n\n\n¼ cup salsa'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 450 degrees F (230 degrees C)."},{"recipe_directions":"Toss sweet potatoes, onion, olive oil, and taco seasoning together in a bowl. Spread out onto a baking sheet."},{"recipe_directions":"Roast in the preheated oven, about 30 minutes or until desired level of doneness."},{"recipe_directions":"Spread 1/4 of the beans down the center of each tortilla. Top each tortilla with 1/4 cup rice, 1/4 of the vegetable mixture, and 1 tablespoon salsa."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"557\nCalories\n\n\n17g \nFat\n\n\n87g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699641222-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/gOOz6iXr_Nj-_zqffh3m6UxURJA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/9080953-85e1e6a46ea84270a0479b5e810d68a4.jpg"
@@ -723,59 +1032,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/275322/vegan-burritos/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Vegan Burritos</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n55 mins\n\n\nTotal Time:\n 1 hr 25 mins\n\n\nServings:\n6 \n\n\nYield:\n6 burritos"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 ¼ cups water\n\n\n1 cup uncooked brown rice\n\n\n1 (10 ounce) can diced tomatoes and green chiles (such as RO*TEL®)\n\n\n3 teaspoons ground cumin\n\n\n2 teaspoons ground turmeric\n\n\n1 teaspoon chopped fresh basil\n\n\n1 pinch garlic powder, or to taste\n\n\n1 pinch salt and ground black pepper to taste\n\n\n1 pinch seasoned salt, or to taste\n\n\n2 tablespoons olive oil\n\n\n2 large red potatoes, cubed\n\n\n1  green bell pepper, chopped\n\n\n1 medium onion, chopped\n\n\n1 clove garlic, minced, or to taste\n\n\n1 (15 ounce) can black beans, rinsed and drained\n\n\n6  flour tortillas\n\n\n1 cup fresh spinach, or to taste\n\n\n1 cup chopped romaine lettuce, or to taste\n\n\n¼ cup salsa, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 ¼ cups water\n\n\n1 cup uncooked brown rice\n\n\n1 (10 ounce) can diced tomatoes and green chiles (such as RO*TEL®)\n\n\n3 teaspoons ground cumin\n\n\n2 teaspoons ground turmeric\n\n\n1 teaspoon chopped fresh basil\n\n\n1 pinch garlic powder, or to taste\n\n\n1 pinch salt and ground black pepper to taste\n\n\n1 pinch seasoned salt, or to taste\n\n\n2 tablespoons olive oil\n\n\n2 large red potatoes, cubed\n\n\n1  green bell pepper, chopped\n\n\n1 medium onion, chopped\n\n\n1 clove garlic, minced, or to taste\n\n\n1 (15 ounce) can black beans, rinsed and drained\n\n\n6  flour tortillas\n\n\n1 cup fresh spinach, or to taste\n\n\n1 cup chopped romaine lettuce, or to taste\n\n\n¼ cup salsa, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Grease a baking sheet."},{"recipe_directions":"Bring water and brown rice to a boil in a saucepan. Stir in diced tomatoes with chile peppers. Reduce heat to medium-low, cover, and simmer until rice is tender and liquid has been absorbed, about 50 minutes."},{"recipe_directions":"While rice is cooking, mix cumin, turmeric, basil, garlic powder, salt, pepper, and seasoned salt together in a large bowl. Add olive oil. Toss potatoes in the mixture until well coated. Lay potatoes in a single layer on the prepared baking sheet."},{"recipe_directions":"Bake in the preheated oven until fork-tender, 15 to 30 minutes, depending on the size of the cubes, checking halfway through cooking time and flipping over as needed."},{"recipe_directions":"While potatoes are cooking, heat a skillet over medium heat. Saute bell pepper and onion in the hot pan until softened, about 5 minutes. Add garlic and cook for 1 minute. Remove from heat and set aside."},{"recipe_directions":"Heat black beans in a saucepan over medium-low heat until hot, 2 to 3 minutes. Keep warm."},{"recipe_directions":"Meanwhile, heat tortillas in a separate skillet over low heat until warm, 1 to 2 minutes, or according to package instructions."},{"recipe_directions":"Lay out tortillas and fill as desired with cooked rice, beans, potatoes, pepper-onion mixture, spinach, romaine lettuce, and salsa as desired. Wrap up into burritos and serve."},{"recipe_directions":"Cook rice according to package instructions, omitting about 1/8 to 1/4 cup of the water. I find it's best to measure the diced tomatoes with green chile peppers in a measuring cup to figure out how much water to omit when cooking the rice."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"495\nCalories\n\n\n10g \nFat\n\n\n89g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699641228-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/L66LmQYf5XtEUKD_qz7amTiB1Hw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/565665-2cc0b65921ca41a983afd12be6189782.jpg"
@@ -788,59 +1093,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/15143/best-burritos/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Best Burritos</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Servings:\n1 \n\n\nYield:\n1 serving"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (10 inch) flour tortilla\n\n\n¼ cup vegetarian refried beans\n\n\n1 slice American cheese\n\n\n1 pinch ground black pepper\n\n\n1 teaspoon low-fat sour cream\n\n\n1 dash hot pepper sauce"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (10 inch) flour tortilla\n\n\n¼ cup vegetarian refried beans\n\n\n1 slice American cheese\n\n\n1 pinch ground black pepper\n\n\n1 teaspoon low-fat sour cream\n\n\n1 dash hot pepper sauce'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a small pot heat the refried beans until they are heated through, approximately 5 minutes."},{"recipe_directions":"Warm the tortilla in a dry frying pan over medium-high heat."},{"recipe_directions":"Lay the burrito on a flat surface. Place the refried bean in the center of the burrito, layer the cheese, pepper, sour cream and hot sauce over the beans. Roll the tortilla so that the mixture is wrapped in the center. Serve warm."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"400\nCalories\n\n\n10g \nFat\n\n\n50g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699641237-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/nCY3XpmJc0x0YSDEw9cd3NM2i5s=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/798495-240a1520b9c545aca17e3d84bea179e2.jpg"
@@ -853,59 +1154,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/263638/fajita-style-vegan-tofu-burrito/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Fajita-Style Vegan Tofu Burrito</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n5 \n\n\nYield:\n5 burritos"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons vegan margarine (such as Earth Balance®)\n\n\n½  yellow squash, thinly sliced\n\n\n½  green bell pepper, diced\n\n\n½  yellow onion, diced\n\n\n½ cup diced jalapeno peppers\n\n\n1 (12 ounce) package cubed tofu\n\n\n3 tablespoons soy sauce\n\n\n1 tablespoon garlic powder\n\n\n5  flour tortillas\n\n\n2 tablespoons vegan sour cream"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons vegan margarine (such as Earth Balance®)\n\n\n½  yellow squash, thinly sliced\n\n\n½  green bell pepper, diced\n\n\n½  yellow onion, diced\n\n\n½ cup diced jalapeno peppers\n\n\n1 (12 ounce) package cubed tofu\n\n\n3 tablespoons soy sauce\n\n\n1 tablespoon garlic powder\n\n\n5  flour tortillas\n\n\n2 tablespoons vegan sour cream'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Melt margarine in a large nonstick skillet over medium heat. Add squash, bell pepper, onion, and jalapeno. Simmer to your desired level of doneness, 5 to 10 minutes. Add cubed tofu. Cook and stir until heated through, about 2 minutes. Add soy sauce and garlic powder; cook about 5 minutes more."},{"recipe_directions":"Wrap tortillas in a moist paper towel and heat in the microwave on high until soft, about 30 seconds."},{"recipe_directions":"Spread a thin layer of vegan sour cream on each tortilla. Add tofu and vegetable mixture and roll up, burrito-style."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"357\nCalories\n\n\n14g \nFat\n\n\n45g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699641244-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/2PHEhljrNYbxWJkA1ySjGqEVDr0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/8213633-60a1dbe2fada47b3ad0f0af28191499c.jpg"
@@ -918,59 +1215,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/280587/instant-pot-make-ahead-breakfast-burritos/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Instant Pot® Make-Ahead Breakfast Burritos</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n40 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n12 \n\n\nYield:\n12 burritos"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 silicone ice cube trays for water bottles\n\n\n  cooking spray\n\n\n12 slices bacon, cooked and crumbled\n\n\n¾ cup shredded Cheddar cheese\n\n\n½ cup chopped green bell pepper\n\n\n3  green onions, chopped\n\n\n12 large eggs\n\n\n¼ cup half-and-half\n\n\n  salt and ground black pepper to taste\n\n\n3 sheets aluminum foil\n\n\n12 (8 inch) flour tortillas"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 silicone ice cube trays for water bottles\n\n\n  cooking spray\n\n\n12 slices bacon, cooked and crumbled\n\n\n¾ cup shredded Cheddar cheese\n\n\n½ cup chopped green bell pepper\n\n\n3  green onions, chopped\n\n\n12 large eggs\n\n\n¼ cup half-and-half\n\n\n  salt and ground black pepper to taste\n\n\n3 sheets aluminum foil\n\n\n12 (8 inch) flour tortillas'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Spray ice cube trays with nonstick cooking spray. Divide bacon, Cheddar cheese, bell pepper, and green onions among the molds."},{"recipe_directions":"Whisk eggs, half-and-half, salt, and pepper together in a measuring glass with a pour spout. Slowly pour egg mixture into the molds until they are full but not overflowing. Spray foil sheets with cooking spray and seal each mold individually."},{"recipe_directions":"Pour 1 1/4 cups water into the bottom of a multi-functional pressure cooker (such as Instant Pot®) and place a trivet inside. Carefully stack all 3 molds on top of the trivet."},{"recipe_directions":"Close and lock the lid. Select high pressure according to manufacturer's instructions; set timer for 30 minutes. Allow 10 minutes for pressure to build."},{"recipe_directions":"Release pressure using the natural-release method according to manufacturer's instructions, about 15 minutes. Unlock and remove the lid. Transfer molds to a clean work surface, remove foil, and let sit for 5 minutes."},{"recipe_directions":"Turn molds over to release the cooked filling. Place one in the center of each flour tortilla and roll into burritos. Let burritos cool. Wrap in parchment paper, place in a large resealable plastic bag, and freeze."},{"recipe_directions":"Feel free to substitute the burrito filling with the ingredients of your choice. Just keep in mind that you need 4 eggs per mold (1 per slot)."},{"recipe_directions":"I recommend wrapping them in parchment paper instead of foil so you can go straight from the freezer to the microwave."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Meat and Seafood"},{"recipe_tags":"Bacon"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"333\nCalories\n\n\n16g \nFat\n\n\n29g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699641251-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -982,59 +1275,55 @@
 Thai Tofu Burritos with Peanut Sauce</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/262335/thai-tofu-burritos-with-peanut-sauce/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Thai Tofu Burritos with Peanut Sauce</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n6 \n\n\nYield:\n6 burritos"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) package extra firm tofu, drained"},{"recipe_ingredients":"½ cup peanut butter\n\n\n½ cup hot water\n\n\n1 tablespoon soy sauce\n\n\n2 teaspoons white sugar\n\n\n1 teaspoon apple cider vinegar\n\n\n½ teaspoon garlic powder\n\n\n¼ teaspoon cayenne pepper"},{"recipe_ingredients":"1 (8.5 ounce) package coleslaw mix with carrots\n\n\n3 tablespoons chopped fresh cilantro\n\n\n2 tablespoons rice vinegar\n\n\n1 tablespoon olive oil\n\n\n1 teaspoon sesame oil\n\n\n1 tablespoon soy sauce\n\n\n  salt and ground black pepper to taste\n\n\n6 (9 inch) tortillas whole wheat tortillas"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) package extra firm tofu, drained'}, {'recipe_ingredients': '½ cup peanut butter\n\n\n½ cup hot water\n\n\n1 tablespoon soy sauce\n\n\n2 teaspoons white sugar\n\n\n1 teaspoon apple cider vinegar\n\n\n½ teaspoon garlic powder\n\n\n¼ teaspoon cayenne pepper'}, {'recipe_ingredients': '1 (8.5 ounce) package coleslaw mix with carrots\n\n\n3 tablespoons chopped fresh cilantro\n\n\n2 tablespoons rice vinegar\n\n\n1 tablespoon olive oil\n\n\n1 teaspoon sesame oil\n\n\n1 tablespoon soy sauce\n\n\n  salt and ground black pepper to taste\n\n\n6 (9 inch) tortillas whole wheat tortillas'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Wrap tofu in a paper towel."},{"recipe_directions":"Whisk peanut butter and water together in a bowl until smooth. Add 1 tablespoon soy sauce, sugar, cider vinegar, garlic powder, and cayenne pepper; whisk until well mixed."},{"recipe_directions":"Combine slaw mix, cilantro, and rice vinegar in a bowl."},{"recipe_directions":"Dice tofu into 1-inch cubes."},{"recipe_directions":"Heat olive oil and sesame oil in a skillet over high heat. Add the tofu, remaining 1 tablespoon soy sauce, salt, and pepper. Cook, stirring occasionally, until tofu is browned on all sides, about 10 minutes."},{"recipe_directions":"Lay a tortilla on a plate and add 1/6 of the tofu across the middle. Add 1/2 cup of the slaw mix and 2 tablespoons peanut sauce. Wrap tortilla around the fillings, burrito style. Repeat with remaining tortillas and filling."},{"recipe_directions":"Substitute any cooking oil for the olive oil, as desired."},{"recipe_directions":"This recipe will yield extra peanut sauce, which is great for stir-fry!"},{"recipe_directions":"Nutrition data for this recipe includes the full amount of peanut sauce. The actual amount of peanut sauce consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"384\nCalories\n\n\n20g \nFat\n\n\n46g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699641257-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/eKfhLlqORygPXG7P9O5GnWu0OkE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/698891-493f5f161ce0445e916ab6af34e35871.jpg"
@@ -1047,59 +1336,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/163636/runza-burritos-international/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Runza Burritos International</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n8 \n\n\nYield:\n8 burritos"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ pounds ground round\n\n\n½ medium head cabbage, chopped\n\n\n1 ½  onion, chopped\n\n\n1 tablespoon minced garlic\n\n\n1 teaspoon crushed red pepper flakes\n\n\n1 teaspoon ground black pepper\n\n\n1 cup water\n\n\n8 (10 inch) flour tortillas\n\n\n2 cups shredded Cheddar cheese"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ pounds ground round\n\n\n½ medium head cabbage, chopped\n\n\n1 ½  onion, chopped\n\n\n1 tablespoon minced garlic\n\n\n1 teaspoon crushed red pepper flakes\n\n\n1 teaspoon ground black pepper\n\n\n1 cup water\n\n\n8 (10 inch) flour tortillas\n\n\n2 cups shredded Cheddar cheese'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a large skillet over medium-high heat and stir in the ground beef. Cook and stir until the beef is crumbly, evenly browned, and no longer pink. Drain and discard any excess grease. Stir in the cabbage, onion, garlic, red pepper flakes, black pepper, and water. Cook and stir until the vegetables are tender, and the water has cooked away, about 10 minutes. Meanwhile, heat the tortillas one at a time in a large skillet over medium heat until pliable."},{"recipe_directions":"Place a tortilla onto your work surface, then spoon some of the filling halfway between the bottom edge and the center of the tortilla. Flatten the filling into rectangle shape with the back of a spoon. Sprinkle 1/4 cup of Cheddar cheese over the filling. Fold the bottom of the tortilla snugly over the filling, then fold in the left and right edges. Roll the burrito up to the top edge, forming a tight cylinder. Repeat with the remaining ingredients."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"448\nCalories\n\n\n19g \nFat\n\n\n44g \nCarbs\n\n\n24g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699641263-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/YUc10-ijCznR3tmlJCxZKENDds0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/9198492-e01d21c2706e4d54a06ac9c7d71b7ee8.jpg"
@@ -1112,59 +1397,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/274779/avocado-and-egg-breakfast-burrito/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Avocado and Egg Breakfast Burrito</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n2 \n\n\nYield:\n2 burritos"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (10 inch) flour tortillas\n\n\n1 tablespoon butter\n\n\n4 medium eggs\n\n\n1 cup shredded mild Cheddar cheese\n\n\n1  Hass avocado - peeled, pitted, and sliced\n\n\n1 small tomato, chopped\n\n\n1 small bunch fresh cilantro, chopped, or to taste (Optional)\n\n\n1 pinch salt and ground black pepper to taste\n\n\n1 dash hot sauce, or to taste (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (10 inch) flour tortillas\n\n\n1 tablespoon butter\n\n\n4 medium eggs\n\n\n1 cup shredded mild Cheddar cheese\n\n\n1  Hass avocado - peeled, pitted, and sliced\n\n\n1 small tomato, chopped\n\n\n1 small bunch fresh cilantro, chopped, or to taste (Optional)\n\n\n1 pinch salt and ground black pepper to taste\n\n\n1 dash hot sauce, or to taste (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place tortillas on a microwave-safe plate. Place shredded Cheddar cheese in the center of each tortilla, towards 1 end. Microwave on high power to melt cheese, 20 to 30 seconds."},{"recipe_directions":"Heat butter in a skillet over medium heat. Whisk eggs together in a bowl. Pour into the skillet; cook and stir until eggs are set, about 5 minutes."},{"recipe_directions":"Place eggs over melted cheese on tortillas; top each with avocado, tomato, and cilantro. Season with salt and pepper. Top with hot sauce."},{"recipe_directions":"A slice of bacon can be added; for those that love meat in their burrito, it is a great addition."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"},{"recipe_tags":"Breakfast Burrito Recipes"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"863\nCalories\n\n\n59g \nFat\n\n\n49g \nCarbs\n\n\n38g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699641269-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/qynsZQir16DueWFjHMxlk_dR8-w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/708327-22f1efc05d234bf38556f5f75640524a.jpg"
@@ -1177,59 +1458,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21852/tasty-breakfast-burritos/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Tasty Breakfast Burritos</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds ground pork sausage\n\n\n12  eggs, beaten\n\n\n1 (4 ounce) can chopped green chile peppers, drained\n\n\n8 (10 inch) flour tortillas\n\n\n8 ounces Cheddar cheese, shredded\n\n\n1 teaspoon all-purpose flour\n\n\n1 cup milk"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds ground pork sausage\n\n\n12  eggs, beaten\n\n\n1 (4 ounce) can chopped green chile peppers, drained\n\n\n8 (10 inch) flour tortillas\n\n\n8 ounces Cheddar cheese, shredded\n\n\n1 teaspoon all-purpose flour\n\n\n1 cup milk'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place sausage in a large, deep skillet. Cook over medium high heat until evenly brown. Drain, reserving 2 tablespoons drippings; set sausage aside. Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Add the eggs and green chiles to the skillet; cook, stirring occasionally, until eggs are scrambled and set."},{"recipe_directions":"Lightly grease a 9x13 inch baking pan. Place the tortillas on a counter top or other clean surface. Cover each tortillas with portions on sausage, cheese and eggs. Roll up the tortillas and place them seam side down in the baking dish."},{"recipe_directions":"Heat reserved sausage drippings in the skillet. Sprinkle on the flour and stir. Add milk, stirring constantly, until the gravy begins to thicken. Pour the gravy on top of the tortilla rolls."},{"recipe_directions":"Bake in preheated oven for 10 to 15 minutes, until gravy is bubbly."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"},{"recipe_tags":"Breakfast Burrito Recipes"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"754\nCalories\n\n\n47g \nFat\n\n\n41g \nCarbs\n\n\n39g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699641275-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/am6ce51ngbcso6BpxTxmlHUpNTE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/875013-5c9d0be1a3bd437b831266dbede2a312.jpg"
@@ -1242,59 +1519,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/53141/vegetarian-bean-burritos/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Vegetarian Bean Burritos</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (15.5 ounce) can pinto beans, drained\n\n\n2 tablespoons tomato sauce\n\n\n2 tablespoons taco seasoning mix, or more to taste\n\n\n8  flour tortillas\n\n\n2 cups shredded lettuce\n\n\n2 cups grated Colby Jack cheese"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (15.5 ounce) can pinto beans, drained\n\n\n2 tablespoons tomato sauce\n\n\n2 tablespoons taco seasoning mix, or more to taste\n\n\n8  flour tortillas\n\n\n2 cups shredded lettuce\n\n\n2 cups grated Colby Jack cheese'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Blend pinto beans, tomato sauce, and taco seasoning in a food processor until a paste forms."},{"recipe_directions":"Cook and stir pinto bean mixture in a skillet over medium heat until warmed, about 5 minutes."},{"recipe_directions":"Place tortillas on a plate and heat in microwave on high until warm, about 30 seconds. Spread warm pinto bean mixture, shredded lettuce, and Colby Jack cheese onto each warm tortilla. Roll the tortilla around the filling to form a burrito."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"481\nCalories\n\n\n15g \nFat\n\n\n64g \nCarbs\n\n\n24g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699641280-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/NknEv_P_xsEhDMHQAJbE9dikh6w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/8107149-dee3f9b2cd8047dab3a89c4f46f164c7.jpg"
@@ -1307,59 +1580,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/280234/air-fryer-chile-verde-burritos/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Air Fryer Chile Verde Burritos</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n10 \n\n\nYield:\n10 small burritos"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups finely chopped leftover pulled pork\n\n\n1 cup salsa verde\n\n\n2 tablespoons cojita cheese\n\n\n10 (6 inch) flour tortillas\n\n\n  cooking spray"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups finely chopped leftover pulled pork\n\n\n1 cup salsa verde\n\n\n2 tablespoons cojita cheese\n\n\n10 (6 inch) flour tortillas\n\n\n  cooking spray'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an air fryer to 400 degrees F (200 degrees C) according to manufacturer's instructions."},{"recipe_directions":"Combine pulled pork, salsa verde, and cojita cheese in a bowl. Stir until evenly combined."},{"recipe_directions":"Place a heaping tablespoon of filling into the bottom half of a tortilla. Make 2 folds on either side of the large fold, creating an envelope shape. Roll it up using the tips of your fingers to tuck the filling in as you go. Repeat with remaining tortillas."},{"recipe_directions":"Spray the basket of the air fryer with nonstick cooking spray. Place some burritos in the basket seam side-down, making sure to not overcrowd. Spray the tops of the burritos with cooking spray."},{"recipe_directions":"Air fry for for 6 minutes. Repeat with remaining burritos. Serve with additional salsa verde for dipping if desired."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"180\nCalories\n\n\n5g \nFat\n\n\n19g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699641288-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/y4k-4A94hdOp0GIEE-_3U8qGgv8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/879445-6097ec0ecda3401194238f958534bc83.jpg"
@@ -1372,59 +1641,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/216357/easy-money-breakfast-burritos/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Easy Money Breakfast Burritos</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n35 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n10 \n\n\nYield:\n10 burritos"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound bulk pork sausage\n\n\n½ small onion, chopped\n\n\n2 teaspoons butter\n\n\n12  eggs, beaten\n\n\n1 (4 ounce) can diced green chilies, drained\n\n\n¾ cup process cheese food (such as Velveeta®), divided\n\n\n¾ cup salsa\n\n\n1 (10 ounce) package burrito-size flour tortillas"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound bulk pork sausage\n\n\n½ small onion, chopped\n\n\n2 teaspoons butter\n\n\n12  eggs, beaten\n\n\n1 (4 ounce) can diced green chilies, drained\n\n\n¾ cup process cheese food (such as Velveeta®), divided\n\n\n¾ cup salsa\n\n\n1 (10 ounce) package burrito-size flour tortillas'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the pork sausage and onion into a skillet over medium heat, and cook until the sausage is browned, about 10 minutes. Break the meat apart into crumbles as it cooks. Drain the excess grease."},{"recipe_directions":"In a separate skillet over medium heat, melt the butter until the foam subsides, and cook and stir the beaten eggs with the chilies until softly scrambled but not wet, about 3 minutes. Transfer the scrambled eggs into a large bowl, and stir in the cooked sausage mixture."},{"recipe_directions":"Place a tortilla onto a microwave-safe plate, and cook in the microwave on High setting for 10 to 20 seconds. The tortilla should be warm and pliable. Spoon about 1/2 cup of the sausage and egg mixture in a line down the the tortilla, slightly off center. Top with about 1 tablespoon of shredded cheese, and 1 tablespoon of salsa. Fold 2 opposite ends of the tortilla over the filling. Press the 2 ends down so they stay folded. Carefully roll the shorter unfolded edge over the burrito, pushing the filling to the back of the roll as you go, to snugly enclose the filling. Keep the 2 ends folded as you roll. Wrap in foil if desired. Repeat with the rest of the tortillas."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"},{"recipe_tags":"Breakfast Burrito Recipes"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"338\nCalories\n\n\n21g \nFat\n\n\n18g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699641295-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Us2GarB-3HoZN3JWwEJEJhtRXII=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3296567-c69ec7aaa6394446ad6288e52ad5f21e.jpg"
@@ -1437,59 +1702,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/245980/beefy-broccoli-cheddar-burritos/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Beefy Broccoli &amp; Cheddar Burritos</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound ground beef\n\n\n1 (5.7 ounce) package Knorr® Rice Sides™ - Cheddar Broccoli\n\n\n2 cups water\n\n\n1 (15 ounce) can kidney beans, rinsed and drained\n\n\n8 (10 inch) burrito-size flour tortillas\n\n\n1 (16 ounce) jar salsa, divided\n\n\n1 cup shredded Cheddar cheese\n\n\n2  green onions, sliced"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound ground beef\n\n\n1 (5.7 ounce) package Knorr® Rice Sides™ - Cheddar Broccoli\n\n\n2 cups water\n\n\n1 (15 ounce) can kidney beans, rinsed and drained\n\n\n8 (10 inch) burrito-size flour tortillas\n\n\n1 (16 ounce) jar salsa, divided\n\n\n1 cup shredded Cheddar cheese\n\n\n2  green onions, sliced'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F."},{"recipe_directions":"Cook ground beef in 12-inch nonstick skillet over medium-high heat, stirring occasionally, until beef is done, about 5 minutes. Remove beef mixture and set aside."},{"recipe_directions":"Stir Knorr® Rice Sides™ - Cheddar Broccoli, water and beans into same skillet and bring to a boil over high heat. Reduce heat to medium and cook covered 7 minutes or until rice is tender. Stir in beef mixture. Remove from heat and let stand 2 minutes. Stir in 1/2 cup salsa and 1/2 cup cheese."},{"recipe_directions":"Spoon about 3/4 cup rice mixture onto each tortilla; roll-up."},{"recipe_directions":"Evenly spread 1/2 cup salsa in bottom of 13 x 9-inch greased baking dish. Arrange burritos, seam-side-down. Spoon remaining salsa down center of burritos, then sprinkle with remaining 1/2 cup cheese. Cover tightly with aluminum foil and bake 25 minutes or until heated through. Garnish with green onions."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Rice"},{"recipe_tags":"Dinner"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"1032\nCalories\n\n\n37g \nFat\n\n\n106g \nCarbs\n\n\n49g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699641303-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/YWFiv40whgyRMeQIl7cjLNANh2w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1822134-9ae42a0237a44d9ea1d5df92b1dce1cc.jpg"
@@ -1502,59 +1763,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/236240/korean-fusion-chicken-burrito/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Korean Fusion Chicken Burrito</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 burritos"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 cloves garlic, minced\n\n\n2 tablespoons Korean chile paste (gochujang)\n\n\n1 tablespoon soy sauce\n\n\n2 teaspoons white sugar\n\n\n1 teaspoon sesame oil\n\n\n2 (10 ounce) cans chicken chunks, drained"},{"recipe_ingredients":"4 (10 inch) flour tortillas\n\n\n2 tablespoons vegetable oil\n\n\n2 teaspoons butter, softened (Optional)\n\n\n1 cup fresh cilantro leaves\n\n\n½ cup chopped kimchi, squeezed dry (Optional)\n\n\n2 tablespoons shredded sharp Cheddar cheese\n\n\n1 tablespoon salsa"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 cloves garlic, minced\n\n\n2 tablespoons Korean chile paste (gochujang)\n\n\n1 tablespoon soy sauce\n\n\n2 teaspoons white sugar\n\n\n1 teaspoon sesame oil\n\n\n2 (10 ounce) cans chicken chunks, drained'}, {'recipe_ingredients': '4 (10 inch) flour tortillas\n\n\n2 tablespoons vegetable oil\n\n\n2 teaspoons butter, softened (Optional)\n\n\n1 cup fresh cilantro leaves\n\n\n½ cup chopped kimchi, squeezed dry (Optional)\n\n\n2 tablespoons shredded sharp Cheddar cheese\n\n\n1 tablespoon salsa'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 360 degrees F (182 degrees C)."},{"recipe_directions":"Stir garlic, chile paste, soy sauce, sugar, and sesame oil together in a bowl until the sugar dissolves into the liquid; add chicken and stir to coat."},{"recipe_directions":"Wrap tortillas in aluminum foil and bake in preheated oven until hot and soft, about 10 minutes."},{"recipe_directions":"While the tortillas warm, heat vegetable oil in a skillet. Cook and stir chicken in skillet until hot and the sauce has thickened, about 10 minutes."},{"recipe_directions":"Spread 1/2 teaspoon butter over one side of each warm tortilla. Divide chicken between the tortillas. Top chicken with equal portions of the cilantro, kimchi, Cheddar cheese, and salsa."},{"recipe_directions":"Fold opposing ends of each tortilla toward one another to partially cover the filling. Pull one remaining edge over the filling and then roll so the tortilla surrounds the filling completely."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Korean"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"597\nCalories\n\n\n29g \nFat\n\n\n46g \nCarbs\n\n\n39g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699641309-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Ase8f6tm0pBocl_rQnjte-mqO20=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/328187-c8bec36840aa4ee1baa85e7d8e743ae9.jpg"
@@ -1567,59 +1824,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/76429/vegetarian-burrito-casserole/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Vegetarian Burrito Casserole</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¾ cup white rice\n\n\n1 ½ cups water\n\n\n1 (12 ounce) package frozen soy burger-style crumbles\n\n\n1 (28 ounce) can whole tomatoes, drained, 1/4 cup juice reserved\n\n\n2 ½ teaspoons chili powder\n\n\n1 teaspoon cumin\n\n\n1 (1.25 ounce) package taco seasoning mix\n\n\n2 (10 inch) burrito-size flour tortillas\n\n\n1 (14.25 ounce) can vegetarian refried beans, divided\n\n\n2  fresh jalapeno peppers - seeded, sliced, and divided\n\n\n1 ½ cups salsa, divided\n\n\n2 ½ cups shredded Cheddar cheese, divided"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ cup white rice\n\n\n1 ½ cups water\n\n\n1 (12 ounce) package frozen soy burger-style crumbles\n\n\n1 (28 ounce) can whole tomatoes, drained, 1/4 cup juice reserved\n\n\n2 ½ teaspoons chili powder\n\n\n1 teaspoon cumin\n\n\n1 (1.25 ounce) package taco seasoning mix\n\n\n2 (10 inch) burrito-size flour tortillas\n\n\n1 (14.25 ounce) can vegetarian refried beans, divided\n\n\n2  fresh jalapeno peppers - seeded, sliced, and divided\n\n\n1 ½ cups salsa, divided\n\n\n2 ½ cups shredded Cheddar cheese, divided'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a saucepan bring water to a boil. Add rice and stir. Reduce heat, cover, and simmer for 20 minutes."},{"recipe_directions":"Preheat oven to 375 degrees F (190 degrees C)."},{"recipe_directions":"Place soy crumbles, tomatoes, reserved tomato juice, chili powder, cumin, and taco seasoning in a medium frying pan over medium high heat. Cook and stir, breaking up tomatoes, for 10 minutes."},{"recipe_directions":"Lay 1 flour tortilla in a lightly greased 8x8 inch baking dish. Layer with one half of the beans, jalapeno slices, rice, salsa, soy mixture, and 1 cup Cheddar cheese. Repeat layers with remaining ingredients, beginning with the flour tortilla, and top with remaining 1 1/2 cups Cheddar cheese."},{"recipe_directions":"Bake in the preheated oven for 15 minutes, or until heated through and cheese is melted. Serve immediately."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"487\nCalories\n\n\n18g \nFat\n\n\n36g \nCarbs\n\n\n51g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699641316-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/bv75S8tUbSr8LG6MRRHiLLthld8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1143x0:1145x2):format(webp)/282659sloppy-joe-burritosLela-40539869062e481fad2ebfadf4091e11.jpeg"
@@ -1633,59 +1886,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/282659/sloppy-joe-burritos/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Sloppy Joe Burritos</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6 \n\n\nYield:\n6 burritos"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound lean ground beef\n\n\n1 (15.5 ounce) can Sloppy Joe sauce\n\n\n1 (30 ounce) can refried beans\n\n\n6 (10 inch) flour tortillas\n\n\n1 ½ cups shredded Cheddar cheese\n\n\n1 cup diced black olives, drained\n\n\n1 cup sour cream\n\n\n1 medium red onion, diced"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound lean ground beef\n\n\n1 (15.5 ounce) can Sloppy Joe sauce\n\n\n1 (30 ounce) can refried beans\n\n\n6 (10 inch) flour tortillas\n\n\n1 ½ cups shredded Cheddar cheese\n\n\n1 cup diced black olives, drained\n\n\n1 cup sour cream\n\n\n1 medium red onion, diced'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a large skillet over medium-high heat. Cook and stir ground beef in the hot skillet until browned and crumbly, 5 to 7 minutes. Drain and discard grease."},{"recipe_directions":"Reduce heat to medium and stir in Sloppy Joe sauce. Stir in refried beans until blended and cook until heated through, 5 to 7 minutes."},{"recipe_directions":"Meanwhile, warm tortillas over medium-low heat on a flat skillet."},{"recipe_directions":"Fill tortillas with meat mixture and top as desired with Cheddar cheese, black olives, sour cream, and diced onion."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Burrito Recipes"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"777\nCalories\n\n\n38g \nFat\n\n\n73g \nCarbs\n\n\n37g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699641322-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/MHfmddxv880JKVRBbx-hbuR7Ti4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(639x0:641x2):format(webp)/image-513-957f58e253ff4847b4bf5af3059feedd.jpg"
@@ -1699,59 +1948,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/283791/crispy-rolled-breakfast-burrito/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Crispy Rolled Breakfast Burrito</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n2 \n\n\nYield:\n2 burritos"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 slices bacon\n\n\n1 large russet potato, peeled and cubed\n\n\n  salt and freshly ground black pepper to taste\n\n\n1 pinch cayenne pepper, or to taste\n\n\n¼ cup sliced onion\n\n\n¼ cup sliced bell pepper\n\n\n1 cup grated Cheddar cheese\n\n\n4 large eggs, beaten\n\n\n2 (10 inch) flour tortillas\n\n\n1 teaspoon hot sauce, or to taste\n\n\n1 medium avocado, cubed \n\n\n2 tablespoons sour cream\n\n\n1 tablespoon fresh cilantro leaves, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 slices bacon\n\n\n1 large russet potato, peeled and cubed\n\n\n  salt and freshly ground black pepper to taste\n\n\n1 pinch cayenne pepper, or to taste\n\n\n¼ cup sliced onion\n\n\n¼ cup sliced bell pepper\n\n\n1 cup grated Cheddar cheese\n\n\n4 large eggs, beaten\n\n\n2 (10 inch) flour tortillas\n\n\n1 teaspoon hot sauce, or to taste\n\n\n1 medium avocado, cubed \n\n\n2 tablespoons sour cream\n\n\n1 tablespoon fresh cilantro leaves, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"I like burritos, and I love breakfast, but I've never been a huge fan of breakfast burritos. Maybe I've just not enjoyed one made by a true master of the craft. The ingredients, in my experience, never seemed to fully integrate with each other — especially the scrambled eggs component."},{"recipe_directions":"And yes, I might be overthinking this. Still, I wanted to try to make one where the eggs, cheese, and tortilla were somehow cooked together (verses just some scrambled eggs wrapped in a tortilla)."},{"recipe_directions":"The good news? I think we did just that. The bad news? You have to be able to flip something over in a pan without having your breakfast burrito turn into a breakfast stovetop. Even an experienced flipper such as myself had an issue (although, in fairness, I was doing it from the side so as not to block the camera). But still, if there's a flaw with this technique, that's it."},{"recipe_directions":"However, if you can effectively flip and stick the landing, you'll be enjoying what I think is a superior breakfast burrito. Besides the ingredients being more harmonized, we also get 100% of the surface area of our tortilla browned and crispy. Get in there and practice, and, as always, enjoy!"},{"recipe_directions":"For more Chef John, be sure to subscribe to Food Wishes on YouTube! Click the \"Join\" button there to get Chef John's bonus video footage and behind-the-scenes pictures, live chats, and other Food Wishes member exclusives."},{"recipe_directions":"Place bacon in a cold, nonstick pan over medium to medium-high heat. Cook until browned, crisp, and foamy, about 10 minutes. Turn off the heat, remove to a paper towel-lined plate, and set aside."},{"recipe_directions":"Place cubed potatoes into the pan of bacon fat and set heat to medium. Season with salt, black pepper, and cayenne. Cook, tossing and turning occasionally, until the potatoes are browned, crispy, and tender, 8 to 10 minutes. Add onions and peppers, and cook until they soften up a bit, 2 to 3 minutes. Transfer everything into a strainer set over a bowl to drain excess bacon fat."},{"recipe_directions":"To make one breakfast burrito, place 2 strips cooked bacon back in the pan. Turn heat to medium and scatter 1/2 of the potato mixture in and around. Scatter over 1/2 of the Cheddar cheese as evenly as possible, and then pour 2 beaten eggs over top."},{"recipe_directions":"Tilt the pan to make sure the egg is evenly distributed. Place a tortilla over the top and press down lightly into the rest of the ingredients. Cook just until the eggs firm up enough to flip, about 1 minute. Use a spatula to carefully, but confidently, flip everything over so the tortilla is now on the bottom. Cook until the tortilla is as browned and crispy as you like, 2 to 3 minutes."},{"recipe_directions":"Remove from the heat and transfer onto a plate. Roll into a burrito and serve with hot sauce, avocado, sour cream, and cilantro. Repeat to cook remaining burrito."},{"recipe_directions":"I tossed my diced avocado with lime juice and salt before adding it to the burrito."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"},{"recipe_tags":"Breakfast Burrito Recipes"}]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"1033\nCalories\n\n\n60g \nFat\n\n\n82g \nCarbs\n\n\n46g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699641329-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/_SsQFXXHQz2Uhj4NwZeMeFBfkNs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4218101-5b3da6e40c794566a6c24a349aaee058.jpg"
@@ -1764,59 +2009,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/264133/country-breakfast-burritos/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Country Breakfast Burritos</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4 \n\n\nYield:\n4 burritos"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  eggs\n\n\n20  frozen bite-size potato nuggets (such as Tater Tots®)"},{"recipe_ingredients":"1 bunch green onions, white parts only, chopped\n\n\n2 tablespoons butter\n\n\n5 links frozen turkey sausage (such as Jimmy Dean®)\n\n\n5 slices cooked bacon, cut into pieces\n\n\n⅓ cup all-purpose flour\n\n\n2 ½ cups milk\n\n\n3 teaspoons ground black pepper\n\n\n1 pinch cayenne pepper\n\n\n4 (9 inch)  whole wheat flour tortillas\n\n\n8 thin slices  Cheddar cheese"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  eggs\n\n\n20  frozen bite-size potato nuggets (such as Tater Tots®)'}, {'recipe_ingredients': '1 bunch green onions, white parts only, chopped\n\n\n2 tablespoons butter\n\n\n5 links frozen turkey sausage (such as Jimmy Dean®)\n\n\n5 slices cooked bacon, cut into pieces\n\n\n⅓ cup all-purpose flour\n\n\n2 ½ cups milk\n\n\n3 teaspoons ground black pepper\n\n\n1 pinch cayenne pepper\n\n\n4 (9 inch)  whole wheat flour tortillas\n\n\n8 thin slices  Cheddar cheese'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 450 degrees F (230 degrees C)."},{"recipe_directions":"Spray a large skillet with cooking spray; warm over medium-high heat. Whisk eggs together in a bowl. Pour into the skillet; cook and stir until eggs are set, about 5 minutes."},{"recipe_directions":"Arrange potato nuggets in a single layer on a baking sheet."},{"recipe_directions":"Bake in the preheated oven until golden brown, 17 to 19 minutes."},{"recipe_directions":"Meanwhile, combine green onions and butter in a cold saucepan."},{"recipe_directions":"Remove sausage links from plastic pouches. Place on a microwave-safe plate and cover with a paper towel. Microwave until heated through, 60 to 65 seconds."},{"recipe_directions":"Cut sausages into small pieces and add to the onion-butter mixture; add bacon. Heat mixture over medium heat, stirring occasionally, until butter is melted. Stir slowly, adding a few spoonfuls of flour at a time, until mixture becomes a paste. Slowly drizzle in milk while mixing constantly. Reduce heat to low; cook and stir until a thick gravy is formed, about 5 minutes. Remove from heat. Stir in black pepper and cayenne pepper."},{"recipe_directions":"Lay a tortilla on a microwave-safe plate. Place 2 slices Cheddar cheese down the middle of the tortilla. Spoon 1/4 of the scrambled eggs over the cheese. Add about 5 potato nuggets. Microwave until heated through, about 20 seconds. Spoon the gravy down the middle of the burrito. Microwave for 20 to 30 seconds more. Roll 1 of the opposing edges around the filling while burrito is still warm. Assemble 3 more burritos with remaining ingredients."},{"recipe_directions":"The directions for cooking the sausage are based on the particular brand mentioned. Follow instructions on the box if using a different brand."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Meat and Seafood"},{"recipe_tags":"Bacon"}]</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"798\nCalories\n\n\n44g \nFat\n\n\n63g \nCarbs\n\n\n51g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699641333-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/gwlXZm8yAiAxLLLD8akfhnFC5Zk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2303x0:2305x2):format(webp)/4526811-ff8b521ce96d40aba2744af28369bd73.jpg"
@@ -1829,59 +2070,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/215417/squash-and-zucchini-burritos/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Squash and Zucchini Burritos</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n½  onion, chopped\n\n\n2 cloves garlic, pressed\n\n\n2  zucchini, shredded\n\n\n1 large yellow squash, shredded\n\n\n½  red bell pepper, chopped\n\n\n1 (15 ounce) can black beans, rinsed and drained\n\n\n1 cup green salsa\n\n\n½ teaspoon ground cumin\n\n\n½ teaspoon ground cayenne pepper\n\n\n1 (8 ounce) package Mexican style shredded cheese blend, divided\n\n\n6  burrito-size flour tortillas\n\n\n1 (8 ounce) package Mexican style shredded cheese blend"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n½  onion, chopped\n\n\n2 cloves garlic, pressed\n\n\n2  zucchini, shredded\n\n\n1 large yellow squash, shredded\n\n\n½  red bell pepper, chopped\n\n\n1 (15 ounce) can black beans, rinsed and drained\n\n\n1 cup green salsa\n\n\n½ teaspoon ground cumin\n\n\n½ teaspoon ground cayenne pepper\n\n\n1 (8 ounce) package Mexican style shredded cheese blend, divided\n\n\n6  burrito-size flour tortillas\n\n\n1 (8 ounce) package Mexican style shredded cheese blend'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Grease a 9x12-inch baking dish."},{"recipe_directions":"Heat the olive oil in a large skillet over medium heat, and cook the onion and garlic until the onion is translucent, about 5 minutes. Stir in the zucchini, yellow squash, and red bell pepper. Cook, stirring frequently, until the zucchini and squash are tender, about 10 minutes. Stir in the black beans, green salsa, cumin, and cayenne pepper. Cook and stir the filling until it thickens, 5 to 8 more minutes."},{"recipe_directions":"Divide one of the packages of Mexican-style cheese among the tortillas. Spoon zucchini-squash filling into each tortilla, over the cheese, in a line down the center. Roll up the tortillas, and place them into the prepared baking dish with the seam sides down."},{"recipe_directions":"Bake in the preheated oven until the cheese is melted and the tortillas are heated through, about 15 minutes. Sprinkle the other package of shredded cheese over the tortillas before serving."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"575\nCalories\n\n\n35g \nFat\n\n\n48g \nCarbs\n\n\n23g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699641338-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/40CD_cIzB2slAQ6FSJn8gfX_RXs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/993936-dc1e7946e31e4b07b34527e0b50a2376.jpg"
@@ -1894,59 +2131,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/231251/easy-cheeseburger-tacos/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Easy Cheeseburger Tacos</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound lean ground beef\n\n\n¼ teaspoon ground black pepper\n\n\n¼ teaspoon salt\n\n\n½ teaspoon garlic powder\n\n\n½ cup ketchup\n\n\n6 (8 inch) flour tortillas\n\n\n1 (8 ounce) package shredded Mexican cheese blend\n\n\n½ cup sour cream\n\n\n⅓ cup ketchup"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound lean ground beef\n\n\n¼ teaspoon ground black pepper\n\n\n¼ teaspoon salt\n\n\n½ teaspoon garlic powder\n\n\n½ cup ketchup\n\n\n6 (8 inch) flour tortillas\n\n\n1 (8 ounce) package shredded Mexican cheese blend\n\n\n½ cup sour cream\n\n\n⅓ cup ketchup'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 375 degrees F (190 degrees C). Lightly grease a 9x13-inch baking dish."},{"recipe_directions":"Heat a large skillet over medium-high heat. Cook and stir beef with black pepper, salt, and garlic powder in the hot skillet until meat is browned and crumbly, 5 to 7 minutes; drain and discard grease. Reduce heat to low and mix 1/2 cup ketchup into beef."},{"recipe_directions":"Lay a tortilla onto a work surface and place about 1/3 cup beef mixture and 1/4 cup shredded cheese onto tortilla in a line down the center. Roll tortilla over meat and cheese, fold in top and bottom to enclose filling, and finish rolling into a burrito shape. Repeat with remaining tortillas and filling. Place filled tortillas into prepared baking sheet and sprinkle remaining Mexican cheese blend on top. Cover dish with aluminum foil."},{"recipe_directions":"Bake in the preheated oven until dish is heated through and cheese topping has melted, 20 to 25 minutes. Stir sour cream with 1/3 cup ketchup in a bowl and top each serving with the sour cream sauce."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"}]</t>
         </is>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"534\nCalories\n\n\n30g \nFat\n\n\n38g \nCarbs\n\n\n29g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699641343-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/WGXKxtQalcgyEru85rrpIzc-44w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/7897651-2e1bc0a83a104b6dac43fde7afd1e52e.jpg"
@@ -1959,59 +2192,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/267536/instant-pot-beef-burritos/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Instant Pot Beef Burritos</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound 85% lean ground beef\n\n\n1 teaspoon kosher salt\n\n\n½ teaspoon ground black pepper\n\n\n1 small onion, diced\n\n\n1 tablespoon olive oil\n\n\n1 cup uncooked long grain rice\n\n\n1 (15 ounce) can black beans, drained and rinsed\n\n\n1 (14.5 ounce) can fire-roasted diced tomatoes, drained\n\n\n1 (14.5 ounce) can vegetable broth\n\n\n2 (1 ounce) packets taco seasoning\n\n\n¼ cup chopped cilantro, or to taste\n\n\n8 (10 inch) burrito-size tortillas, or as needed\n\n\n2 cups shredded Mexican cheese blend\n\n\n2  tomatoes, diced, or more to taste\n\n\n1  avocado, diced, or more to taste\n\n\n¼ cup sour cream, or to taste\n\n\n2  green onions, chopped, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound 85% lean ground beef\n\n\n1 teaspoon kosher salt\n\n\n½ teaspoon ground black pepper\n\n\n1 small onion, diced\n\n\n1 tablespoon olive oil\n\n\n1 cup uncooked long grain rice\n\n\n1 (15 ounce) can black beans, drained and rinsed\n\n\n1 (14.5 ounce) can fire-roasted diced tomatoes, drained\n\n\n1 (14.5 ounce) can vegetable broth\n\n\n2 (1 ounce) packets taco seasoning\n\n\n¼ cup chopped cilantro, or to taste\n\n\n8 (10 inch) burrito-size tortillas, or as needed\n\n\n2 cups shredded Mexican cheese blend\n\n\n2  tomatoes, diced, or more to taste\n\n\n1  avocado, diced, or more to taste\n\n\n¼ cup sour cream, or to taste\n\n\n2  green onions, chopped, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Turn on a multi-functional pressure cooker (such as Instant Pot) and select Saute function; if available, select \"more\" option. Add ground beef, salt, and pepper. Cook and stir beef until browned and crumbly, 5 to 7 minutes. Add onion and cook until starting to soften, 1 to 3 minutes more. Add olive oil and rice. Cook and stir until some grains start to turn golden brown, about 2 minutes. Stir in beans, tomatoes, broth, and taco seasoning."},{"recipe_directions":"Close and lock the lid. Select high pressure according to manufacturer's instructions; set timer for 7 minutes. Allow 10 to 15 minutes for pressure to build."},{"recipe_directions":"Release pressure carefully using the quick-release method according to manufacturer's instructions, about 5 minutes. Unlock and remove the lid. Fluff burrito bowl filling with a fork and add cilantro."},{"recipe_directions":"Serve filling in tortillas with Mexican cheese blend. Garnish with fresh tomatoes, avocado, sour cream, and green onions."},{"recipe_directions":"Substitute chicken broth for vegetable broth if preferred."}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"685\nCalories\n\n\n28g \nFat\n\n\n77g \nCarbs\n\n\n30g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699641347-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/aVjBWbLI4738lF1cnV92t-3F5Hk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(489x0:491x2):format(webp)/8351823-e65ea3242fe341deaa185b3b69f75928.jpg"
@@ -2024,59 +2253,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/281677/crispy-bean-and-cheese-burritos/</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Crispy Bean and Cheese Burritos</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6 \n\n\nYield:\n6 burritos"}]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) can refried beans\n\n\n1 tablespoon salsa\n\n\n½ teaspoon chili powder\n\n\n¼ teaspoon garlic powder\n\n\n¼ teaspoon ground cumin\n\n\n6 (8 inch) flour tortillas\n\n\n½ cup shredded Mexican cheese blend\n\n\n1 ½ tablespoons vegetable oil, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) can refried beans\n\n\n1 tablespoon salsa\n\n\n½ teaspoon chili powder\n\n\n¼ teaspoon garlic powder\n\n\n¼ teaspoon ground cumin\n\n\n6 (8 inch) flour tortillas\n\n\n½ cup shredded Mexican cheese blend\n\n\n1 ½ tablespoons vegetable oil, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine refried beans, salsa, chili powder, garlic powder, and cumin in a mixing bowl; stir until smooth."},{"recipe_directions":"Spoon about 3 tablespoons of the bean mixture onto the center of a tortilla and smooth into a thin layer. Sprinkle with a large pinch of shredded cheese and roll tightly. Repeat with remaining bean mixture, tortillas, and cheese."},{"recipe_directions":"Heat oil in a large skillet over medium-high heat. Place a few burritos, seam-side down, into the skillet. Cook, turning every 30 seconds, until golden and crispy on all sides, 5 to 8 minutes. Remove to a plate and repeat with remaining burritos."},{"recipe_directions":"You can use Cheddar cheese if you'd like."}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"305\nCalories\n\n\n12g \nFat\n\n\n40g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699641351-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/CX6N5jt5gIYLAScC5niK8BF8rEU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(639x0:641x2):format(webp)/Easy-One-Skillet-Ground-Beef-Burrito-1x1-1-caae24668542417eade7f6e54b09ee1c.jpg"
@@ -2090,59 +2315,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/277009/easy-one-skillet-ground-beef-burrito/</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Easy One-Skillet Ground Beef Burrito</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound ground beef\n\n\n1 (15 ounce) can black beans, partially drained\n\n\n1 cup salsa\n\n\n⅔ cup water\n\n\n1 (1 ounce) package taco seasoning\n\n\n4 (8 inch) flour tortillas, cut into strips\n\n\n1 cup shredded Cheddar cheese\n\n\n1 (8 ounce) carton sour cream, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound ground beef\n\n\n1 (15 ounce) can black beans, partially drained\n\n\n1 cup salsa\n\n\n⅔ cup water\n\n\n1 (1 ounce) package taco seasoning\n\n\n4 (8 inch) flour tortillas, cut into strips\n\n\n1 cup shredded Cheddar cheese\n\n\n1 (8 ounce) carton sour cream, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a large nonstick skillet over medium-high heat. Cook and stir ground beef in the hot skillet until browned and crumbly, 5 to 7 minutes. Remove ground beef to a paper towel-lined plate and drain and discard grease from the skillet."},{"recipe_directions":"Return ground beef to the skillet and add black beans, salsa, water, and taco seasoning. Mix well and bring to a boil. Reduce heat slightly and add Cheddar cheese and tortilla strips. Cover and simmer until cheese is melted, about 5 minutes. Top with sour cream."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of sour cream. The actual amount of sour cream consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"772\nCalories\n\n\n43g \nFat\n\n\n57g \nCarbs\n\n\n39g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699641355-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/VSDqwLuBDf-ZsfYq10oCa1Yv-dU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/828938-772742387a934dafbdf69aaf763e3663.jpg"
@@ -2155,59 +2376,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/220772/courts-creamy-and-quick-burritos/</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Court's Creamy and Quick Burritos</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n6 \n\n\nYield:\n6 burritos"}]</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound ground beef\n\n\n½  yellow onion, chopped\n\n\n1 (14 ounce) can refried beans\n\n\n1 cup shredded sharp Cheddar cheese\n\n\n1 (1 ounce) package taco seasoning\n\n\n6 (9 inch)  flour tortillas\n\n\n1 (10.75 ounce) can  condensed cream of mushroom soup\n\n\n8 ounces sour cream\n\n\n½ cup salsa, or to taste (Optional)\n\n\n1 ½ cups shredded sharp Cheddar cheese"}]</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound ground beef\n\n\n½  yellow onion, chopped\n\n\n1 (14 ounce) can refried beans\n\n\n1 cup shredded sharp Cheddar cheese\n\n\n1 (1 ounce) package taco seasoning\n\n\n6 (9 inch)  flour tortillas\n\n\n1 (10.75 ounce) can  condensed cream of mushroom soup\n\n\n8 ounces sour cream\n\n\n½ cup salsa, or to taste (Optional)\n\n\n1 ½ cups shredded sharp Cheddar cheese'}]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Cook ground beef and onion in a skillet over medium heat until the beef is completely browned, 7 to 10 minutes. Drain excess grease from the skillet."},{"recipe_directions":"Stir refried beans, 1 cup Cheddar cheese, and taco seasoning into the drained ground beef mixture."},{"recipe_directions":"Spoon ground beef mixture down the center of each tortilla. Roll the tortillas around the beef filling."},{"recipe_directions":"Stir cream of mushroom soup, sour cream, and salsa together in a bowl."},{"recipe_directions":"Spread about 1/2 the cream of mushroom soup mixture into the bottom of a 9x13-inch baking dish."},{"recipe_directions":"Arrange rolled tortillas into a single layer in the baking dish with the seam side down."},{"recipe_directions":"Pour remaining cream of mushroom soup mixture over the tortillas."},{"recipe_directions":"Top with 1 1/2 cups Cheddar cheese."},{"recipe_directions":"Bake in preheated oven until cheese is bubbly and melted, 30 to 35 minutes."},{"recipe_directions":"For a casserole version, spread 1/2 the cream mixture into the bottom of a 9x13-inch casserole dish. Tear up 1/2 the tortillas and spread over sour cream mixture. Put 1/2 the meat mixture over that. Add a layer of cheese. Add salsa if desired. Repeat the layers. Sprinkle cheese over the top and bake, uncovered, at 350 degrees for 30-35 minutes or until cheese is bubbly and melted."}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"745\nCalories\n\n\n44g \nFat\n\n\n52g \nCarbs\n\n\n35g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699641360-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/gZD3e72-hXVM2ip1Yl0GsFrRqrg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1692x0:1694x2):format(webp)/8349893-4572f0603c8340ea9fb56b955c56f79a.jpg"
@@ -2220,59 +2437,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/280752/quick-and-easy-pulled-pork-burritos/</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Quick and Easy Pulled Pork Burritos</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n8 \n\n\nYield:\n8 burritos"}]</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) can baked beans (such as Bush's® Grillin' Beans®)\n\n\n8 (10 inch) soft flour tortillas\n\n\n1 small onion, diced\n\n\n1 pound cooked pulled pork, heated\n\n\n1 (8 ounce) package shredded Monterey Jack cheese\n\n\n1 (16 ounce) can mild enchilada sauce"}]</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "1 (16 ounce) can baked beans (such as Bush's® Grillin' Beans®)\n\n\n8 (10 inch) soft flour tortillas\n\n\n1 small onion, diced\n\n\n1 pound cooked pulled pork, heated\n\n\n1 (8 ounce) package shredded Monterey Jack cheese\n\n\n1 (16 ounce) can mild enchilada sauce"}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour beans into a pot and bring to a simmer over medium-low heat."},{"recipe_directions":"Place a tortilla on a microwave-safe plate, sprinkle with onion, 2 tablespoons beans, and 2 to 3 tablespoons pulled pork. Sprinkle with Monterey Jack cheese, and roll the tortilla closed. Drizzle over 2 tablespoons of enchilada sauce, and sprinkle with more cheese."},{"recipe_directions":"Microwave until heated through and cheese is melted, about 1 minute. Repeat with remaining tortillas and filling ingredients."}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Pork"}]</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"496\nCalories\n\n\n18g \nFat\n\n\n57g \nCarbs\n\n\n27g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699641364-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/UxzzWic2K5slNM632AJetIMey1A=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/7889736-f0e7852d4ce240a69faa292743bdd35d.jpg"
@@ -2285,59 +2498,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/278355/burritos-with-mexican-chorizo-and-potatoes/</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Burritos with Mexican Chorizo and Potatoes</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n8 \n\n\nYield:\n8 burritos"}]</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"12 ounces Mexican chorizo, crumbled\n\n\n1 medium onion, chopped\n\n\n2 large potatoes, peeled and cut into small cubes\n\n\n¼ cup water\n\n\n1 clove garlic, crushed\n\n\n8  flour tortillas, warmed"}]</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '12 ounces Mexican chorizo, crumbled\n\n\n1 medium onion, chopped\n\n\n2 large potatoes, peeled and cut into small cubes\n\n\n¼ cup water\n\n\n1 clove garlic, crushed\n\n\n8  flour tortillas, warmed'}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine chorizo and onion in a large skillet over medium heat. Cook and stir until onion is soft, about 5 minutes. Add potatoes, water, and garlic; stir well. Cover and reduce heat to medium-low. Cook, stirring every 10 minutes, until potatoes are tender, about 25 minutes. Remove from heat and spoon into warm tortillas."}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"354\nCalories\n\n\n13g \nFat\n\n\n46g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699641368-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/xe3aeIIu0DSMdOijRXO0WLeq0hs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(539x0:541x2):format(webp)/Big-Mac-Burrito-7966f4e65505402ba6c3a522e1809d3e.jpg"
@@ -2351,59 +2560,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/8351246/big-mac-burritos/</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Big Mac® Burritos</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n6 \n\n\nYield:\n6 burritos"}]</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup mayonnaise\n\n\n1 tablespoon sugar-free ketchup\n\n\n1 teaspoon mustard\n\n\n1 teaspoon pickle juice\n\n\n1 teaspoon apple cider vinegar\n\n\n1 ¼ teaspoons salt, divided\n\n\n¾ teaspoon ground black pepper, divided\n\n\n12 slices dill pickle\n\n\n1 pound ground beef\n\n\n½ cup diced onion\n\n\n2 teaspoons Worcestershire sauce\n\n\n6 (8 inch) low-carb tortillas\n\n\n1 ½ cups shredded Cheddar cheese\n\n\n  avocado oil cooking spray\n\n\n1 teaspoon sesame seeds, or to taste (Optional)\n\n\n1 ½ cups shredded romaine lettuce, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup mayonnaise\n\n\n1 tablespoon sugar-free ketchup\n\n\n1 teaspoon mustard\n\n\n1 teaspoon pickle juice\n\n\n1 teaspoon apple cider vinegar\n\n\n1 ¼ teaspoons salt, divided\n\n\n¾ teaspoon ground black pepper, divided\n\n\n12 slices dill pickle\n\n\n1 pound ground beef\n\n\n½ cup diced onion\n\n\n2 teaspoons Worcestershire sauce\n\n\n6 (8 inch) low-carb tortillas\n\n\n1 ½ cups shredded Cheddar cheese\n\n\n  avocado oil cooking spray\n\n\n1 teaspoon sesame seeds, or to taste (Optional)\n\n\n1 ½ cups shredded romaine lettuce, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix mayonnaise, ketchup, mustard, pickle juice, vinegar, ¼ teaspoon salt, and ¼ teaspoon pepper together in a small bowl until well combined. Cut each pickle slice in quarters for 48 total pieces. Set both aside."},{"recipe_directions":"Heat a skillet over medium-high heat. Add ground beef and cook, crumbling with a spoon and stirring often, until browned, 5 to 7 minutes. Drain grease (if desired). Add onion to the beef and cook for 2 minutes. Stir in Worcestershire sauce, remaining 1 teaspoon salt, and remaining ½ teaspoon pepper. Remove from the heat."},{"recipe_directions":"Place one tortilla on a work surface. Add ½ cup Cheddar cheese. Top with about ½ cup beef mixture, 8 pieces pickle, and about 1 teaspoon sauce. Fold in the sides of the tortilla and roll over the filling into a burrito. Place burrito, seam-side down, on a plate while you prepare the remaining burritos."},{"recipe_directions":"Spray each burrito with cooking spray and sprinkle with sesame seeds. Place, seam-side down, in the air fryer basket."},{"recipe_directions":"Air-fry at 375 degrees F (190 degrees C) until golden and toasted, 5 to 7 minutes."},{"recipe_directions":"Serve with the remaining sauce and shredded lettuce."},{"recipe_directions":"You can use regular tortillas, if you like."}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Burrito Recipes"}]</t>
         </is>
       </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"524\nCalories\n\n\n42g \nFat\n\n\n19g \nCarbs\n\n\n27g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699641374-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/MKGb4lmsCmeItlYxIsiGSolEyuE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/872616-0433a24c2af84b69a538c44a01199672.jpg"
@@ -2416,59 +2621,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/36470/kid-friendly-taco-burritos/</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Kid-Friendly Taco-Burritos</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (17.5 ounce) package burrito-size flour tortillas\n\n\n3  green onions, sliced\n\n\n1 large tomato, diced\n\n\n1 (4.5 ounce) can sliced black olives, drained\n\n\n6  torn lettuce leaves\n\n\n1  ripe avocado, sliced\n\n\n1 (16 ounce) can refried beans\n\n\n2 teaspoons dried onion flakes\n\n\n½ teaspoon dried, minced garlic\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground cumin\n\n\n1 teaspoon chili powder\n\n\n¼ teaspoon dried oregano\n\n\n2 teaspoons water\n\n\n1 (16 ounce) package shredded Cheddar cheese\n\n\n1 (8 ounce) container sour cream"}]</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (17.5 ounce) package burrito-size flour tortillas\n\n\n3  green onions, sliced\n\n\n1 large tomato, diced\n\n\n1 (4.5 ounce) can sliced black olives, drained\n\n\n6  torn lettuce leaves\n\n\n1  ripe avocado, sliced\n\n\n1 (16 ounce) can refried beans\n\n\n2 teaspoons dried onion flakes\n\n\n½ teaspoon dried, minced garlic\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground cumin\n\n\n1 teaspoon chili powder\n\n\n¼ teaspoon dried oregano\n\n\n2 teaspoons water\n\n\n1 (16 ounce) package shredded Cheddar cheese\n\n\n1 (8 ounce) container sour cream'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large serving dish, arrange green onions. diced tomato, sliced olives, lettuce and avocado. Set aside."},{"recipe_directions":"Empty the can of refried beans into a microwave-safe bowl. Season with onion flakes, garlic, salt, cumin, chili powder and oregano. Stir in water, cover, and cook in microwave, on high, for about 2 minutes."},{"recipe_directions":"Take a tortilla and spread a thin layer of beans on half of it. Sprinkle on the cheese, and whatever toppings you would like. Spread sour cream over the other half of the tortilla."},{"recipe_directions":"Fold the tortilla in half, and then into quarters, and serve."}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"602\nCalories\n\n\n36g \nFat\n\n\n48g \nCarbs\n\n\n24g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699641376-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/4VSEy2LhNPreGIUV4GrzP2SXi4E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1053890-679272aff1e2426c81d5600382a42fa5.jpg"
@@ -2481,59 +2682,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/58246/make-ahead-lunch-wraps/</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Make-Ahead Lunch Wraps</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n16 \n\n\nYield:\n16 wraps"}]</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups uncooked brown rice\n\n\n4 cups water\n\n\n4 (15 ounce) cans black beans\n\n\n2 (15.5 ounce) cans pinto beans\n\n\n1 (10 ounce) can whole kernel corn\n\n\n1 (10 ounce) can diced tomatoes with green chiles\n\n\n16 (10 inch) flour tortillas\n\n\n1 pound shredded pepper Jack cheese"}]</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups uncooked brown rice\n\n\n4 cups water\n\n\n4 (15 ounce) cans black beans\n\n\n2 (15.5 ounce) cans pinto beans\n\n\n1 (10 ounce) can whole kernel corn\n\n\n1 (10 ounce) can diced tomatoes with green chiles\n\n\n16 (10 inch) flour tortillas\n\n\n1 pound shredded pepper Jack cheese'}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine rice and water in a saucepan and bring to a boil. Reduce the heat to low, cover, and simmer for 35 to 40 minutes, or until tender. Remove from the heat and let and cool."},{"recipe_directions":"Meanwhile, rinse black beans and pinto beans in a colander or strainer. Transfer beans to a large bowl. Mix in corn and diced tomatoes with green chiles, then mix in cooled rice and pepper Jack cheese."},{"recipe_directions":"Divide mixture evenly among tortillas and roll up. Wrap individually in plastic wrap, place into a large freezer bag, and freeze. Reheat as needed in the microwave for lunch or snacks."}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"557\nCalories\n\n\n16g \nFat\n\n\n81g \nCarbs\n\n\n23g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699641379-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/_e8LlUFv9p12nhliqabTzLReZ7I=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/35429-57851c476ca24775a7d4f4638c0fe024.jpg"
@@ -2546,59 +2743,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/85720/easy-egg-and-avocado-breakfast-burrito/</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Easy Egg and Avocado Breakfast Burrito</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6  eggs\n\n\n⅓ cup milk\n\n\n¼ cup shredded Cheddar cheese\n\n\n  salt to taste\n\n\n2  avocados - peeled, pitted, and mashed\n\n\n4 (10 inch) flour tortillas, warmed\n\n\n⅔ cup dry curd cottage cheese\n\n\n¼ cup ketchup"}]</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6  eggs\n\n\n⅓ cup milk\n\n\n¼ cup shredded Cheddar cheese\n\n\n  salt to taste\n\n\n2  avocados - peeled, pitted, and mashed\n\n\n4 (10 inch) flour tortillas, warmed\n\n\n⅔ cup dry curd cottage cheese\n\n\n¼ cup ketchup'}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a bowl, beat together eggs, milk, and cheese. Season with salt. Pour into a skillet over medium heat. Cook and stir until scrambled."},{"recipe_directions":"Season mashed avocados with salt. Place tortillas one at a time in a separate skillet over medium heat, and cook just until warm. Spread equal amounts of avocado mixture on one side of each warmed tortilla. Layer with equal amounts of cottage cheese and scrambled eggs. Roll into burritos and serve with ketchup."}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"},{"recipe_tags":"Breakfast Burrito Recipes"}]</t>
         </is>
       </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"582\nCalories\n\n\n31g \nFat\n\n\n53g \nCarbs\n\n\n26g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699641384-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DxJMrBZmR5cSVjaBBcWEv7i4wAM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2303x0:2305x2):format(webp)/5058401-6f6aa31dae364f4db0d89f6a06fbf634.jpg"
@@ -2611,59 +2804,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/261943/ground-turkey-burritos-that-will-fool-your-kids/</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Ground Turkey Burritos That Will Fool Your Kids</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"water to cover\n\n\n1 cup uncooked brown rice\n\n\n1 head red cabbage\n\n\n¼ cup olive oil\n\n\n½  red onion, chopped\n\n\n1 stalk celery, finely chopped\n\n\n1 clove garlic, minced\n\n\n1 pound ground turkey\n\n\n  sea salt to taste\n\n\n1 (8 ounce) can crushed tomatoes\n\n\n12 (10 inch) flour tortillas"}]</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'water to cover\n\n\n1 cup uncooked brown rice\n\n\n1 head red cabbage\n\n\n¼ cup olive oil\n\n\n½  red onion, chopped\n\n\n1 stalk celery, finely chopped\n\n\n1 clove garlic, minced\n\n\n1 pound ground turkey\n\n\n  sea salt to taste\n\n\n1 (8 ounce) can crushed tomatoes\n\n\n12 (10 inch) flour tortillas'}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring water and brown rice to a boil in a saucepan. Reduce heat to medium-low, cover, and simmer until rice is tender and liquid has been absorbed, 45 to 50 minutes."},{"recipe_directions":"Cut off stem of red cabbage. Peel off leaves gently, being careful not to tear. Place individual leaves gently into a large pot of water and bring to a boil. Cook for 5 minutes; reduce heat and simmer until tender but still crunchy and red, 8 to 10 minutes more. Drain."},{"recipe_directions":"Heat olive oil in a large skillet over medium-high heat. Sauté onion, celery, and garlic until softened, 5 to 7 minutes. Mix in turkey and season with salt. Cook and stir until meat is browned and crumbly, 5 to 7 minutes. Add crushed tomatoes and cooked rice. Cook, stirring occasionally, until flavors combine, 10 to 15 minutes more."},{"recipe_directions":"Place 1 cabbage leaf on top of each tortilla. Fill with turkey-rice mixture. Fold the bottom end up and roll into a tight burrito."},{"recipe_directions":"Heat a grill pan over medium heat. Add burritos in batches; cook, flipping as necessary, until outsides are crunchy, about 5 minutes."},{"recipe_directions":"You can add more vegetables to your preference (peppers, shallots, mushrooms, etc.)."},{"recipe_directions":"Use any rice of your choice."},{"recipe_directions":"If you are in a hurry, you may add rice to the rest of ingredients before it is completely done as long as it continues to cook for another 10 to 20 minutes, covered."},{"recipe_directions":"You can grill them and freeze them; microwave them for about 3 minutes, and you are ready to go. We do it all the time."}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Turkey"},{"recipe_tags":"Ground Turkey Recipes"}]</t>
         </is>
       </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"401\nCalories\n\n\n13g \nFat\n\n\n55g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699641390-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/nMVPDjNQYRv6QMP2q2pCFN6ITaw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/778557-sweet-pork-for-burritos-My-Hot-Southern-Mess-4x3-1-3478b840b51747cf9b6e12b394d8e4af.jpg"
@@ -2677,59 +2866,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/185816/sweet-pork-for-burritos/</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Sweet Pork for Burritos</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 30 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 pounds pork shoulder roast \n\n\n2 cups salsa\n\n\n1 (12 fluid ounce) can or bottle cola-flavored carbonated beverage\n\n\n2 cups brown sugar\n\n\n½ (1.27 ounce) packet fajita seasoning\n\n\n2 tablespoons taco seasoning mix\n\n\n1 (7 ounce) can chopped green chile peppers"}]</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 pounds pork shoulder roast \n\n\n2 cups salsa\n\n\n1 (12 fluid ounce) can or bottle cola-flavored carbonated beverage\n\n\n2 cups brown sugar\n\n\n½ (1.27 ounce) packet fajita seasoning\n\n\n2 tablespoons taco seasoning mix\n\n\n1 (7 ounce) can chopped green chile peppers'}]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place pork roast in a slow cooker and add 4 cups water. Cook on High for 5 hours."},{"recipe_directions":"Remove pork from the slow cooker and drain liquid. Cut pork into 4 pieces and set aside."},{"recipe_directions":"Purée salsa in blender. Combine salsa, cola, brown sugar, fajita seasoning, taco seasoning, and green chiles in the slow cooker. Return pork to the slow cooker and cook on High for 3 hours."},{"recipe_directions":"Remove pork and shred it with 2 forks."}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"355\nCalories\n\n\n15g \nFat\n\n\n33g \nCarbs\n\n\n23g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699641396-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/qhD_gbjgETnbgJyokybk7L19cmc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1572420-69481868a0c6489ab1c2f1e1278c56d9.jpg"
@@ -2742,59 +2927,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/222013/wet-burrito/</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Wet Burrito</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound lean ground beef\n\n\n¾ cup chopped onion, divided\n\n\n2 cloves garlic, minced\n\n\n1 (14.5 ounce) can diced tomatoes with juice, divided\n\n\n1 tablespoon Worcestershire sauce\n\n\n1 ½ teaspoons chili powder\n\n\n1 teaspoon paprika\n\n\n1 teaspoon dried oregano\n\n\n1 teaspoon ground cumin, divided\n\n\n½ teaspoon ground black pepper\n\n\n2 cups refried beans\n\n\n1 (18 ounce) jar beef gravy\n\n\n1 (10 ounce) can enchilada sauce\n\n\n4 large flour tortillas\n\n\n2 cups shredded Cheddar cheese, divided\n\n\n1 cup sour cream, divided\n\n\n¼ cup chopped tomatoes, divided\n\n\n1 cup chopped lettuce, divided"}]</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound lean ground beef\n\n\n¾ cup chopped onion, divided\n\n\n2 cloves garlic, minced\n\n\n1 (14.5 ounce) can diced tomatoes with juice, divided\n\n\n1 tablespoon Worcestershire sauce\n\n\n1 ½ teaspoons chili powder\n\n\n1 teaspoon paprika\n\n\n1 teaspoon dried oregano\n\n\n1 teaspoon ground cumin, divided\n\n\n½ teaspoon ground black pepper\n\n\n2 cups refried beans\n\n\n1 (18 ounce) jar beef gravy\n\n\n1 (10 ounce) can enchilada sauce\n\n\n4 large flour tortillas\n\n\n2 cups shredded Cheddar cheese, divided\n\n\n1 cup sour cream, divided\n\n\n¼ cup chopped tomatoes, divided\n\n\n1 cup chopped lettuce, divided'}]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C)."},{"recipe_directions":"Place a skillet over medium heat. Cook and stir ground beef, 1/2 cup chopped onion, and garlic in the hot skillet until beef is browned and crumbly, breaking it apart as it cooks, about 8 minutes; drain excess grease. Mix in 1/2 of the can diced tomatoes, Worcestershire sauce, chili powder, paprika, oregano, 3/4 teaspoon cumin, and black pepper. Bring meat mixture to a boil over medium-high heat and cook for 5 minutes, stirring often."},{"recipe_directions":"Heat refried beans and remaining 1/4 teaspoon cumin in a saucepan over medium-low heat. Keep beans warm. Mix remaining diced tomatoes, beef gravy, and enchilada sauce in a separate saucepan; bring to a boil."},{"recipe_directions":"Place tortillas onto a microwave-safe plate and cover with a damp paper towel; microwave tortillas until they are soft and warm, about 30 seconds."},{"recipe_directions":"Place warmed tortilla onto a work surface and spoon 1/4 of the beef mixture in a line down the center. Layer 1/4 of the bean mixture on top of beef layer and spread 1/4 cup of the Cheddar cheese over the bean layer. Fold right and left edges of tortilla over the ends of the filling and roll up tortilla to make a burrito. Place burrito, seam side down, into a 9x13-inch baking dish. Repeat with remaining tortillas to make 4 burritos."},{"recipe_directions":"Pour gravy sauce over burritos in the baking dish; top with remaining 1 cup Cheddar cheese."},{"recipe_directions":"Bake burritos in the preheated oven until cheese has melted, 15 to 20 minutes."},{"recipe_directions":"To serve, place each burrito on a serving plate and spoon sauce from baking dish over burrito. Top each burrito with 1/4 cup sour cream, remaining chopped onion, and chopped tomato. Finish each with 1/4 cup chopped lettuce."}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"1191\nCalories\n\n\n59g \nFat\n\n\n104g \nCarbs\n\n\n59g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699641399-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ylwWL7gNd7yGYMQMcad4MusV_nk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/Breakfast-Burritos-SoupLovingNicole-1x1-1-2000-56db57fa94164f40bde04145ffa0b2f0.jpg"
@@ -2808,59 +2989,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21368/breakfast-burritos/</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Breakfast Burritos</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n10"}]</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound bacon\n\n\n10  eggs\n\n\n1 (16 ounce) can refried beans\n\n\n8 ounces shredded Cheddar cheese\n\n\n10 (10 inch) flour tortillas"}]</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound bacon\n\n\n10  eggs\n\n\n1 (16 ounce) can refried beans\n\n\n8 ounces shredded Cheddar cheese\n\n\n10 (10 inch) flour tortillas'}]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place bacon in a large, deep skillet. Cook over medium-high heat until evenly brown. Drain, and set aside. Wrap tortillas in foil and warm them in the oven."},{"recipe_directions":"Fry eggs in a greased skillet until firm. In a small saucepan, heat refried beans."},{"recipe_directions":"Top each tortilla with refried beans, 2 strips of bacon, 1 egg, and a little cheese. Roll tortillas into burritos and serve."},{"recipe_directions":"Ham or sausage may be substituted for bacon."}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"},{"recipe_tags":"Breakfast Burrito Recipes"}]</t>
         </is>
       </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"638\nCalories\n\n\n39g \nFat\n\n\n45g \nCarbs\n\n\n26g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699641403-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Z5WjvkF-YDWwz-vdFcO8dw-u8Xw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/963950-ed57103c3899450b84e2396caa6ac349.jpg"
@@ -2873,59 +3050,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/231147/sausage-and-pepper-sunrise-burrito/</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Sausage and Pepper Sunrise Burrito</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4 \n\n\nYield:\n4 burritos"}]</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 links breakfast pork sausage, cut into 1/2-inch pieces\n\n\n½ cup red bell pepper strips\n\n\n½ cup green bell pepper strips\n\n\n½  red onion, sliced\n\n\n4  eggs, beaten\n\n\n4 (8 inch) whole wheat tortillas\n\n\n1 cup Kraft Creamy Melt shredded triple Cheddar with cream cheese"}]</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 links breakfast pork sausage, cut into 1/2-inch pieces\n\n\n½ cup red bell pepper strips\n\n\n½ cup green bell pepper strips\n\n\n½  red onion, sliced\n\n\n4  eggs, beaten\n\n\n4 (8 inch) whole wheat tortillas\n\n\n1 cup Kraft Creamy Melt shredded triple Cheddar with cream cheese'}]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cook sausage, bell peppers, and onion in a medium nonstick skillet over medium heat until sausage is cooked through and vegetables are crisp-tender, 4 to 5 minutes. Remove from the skillet."},{"recipe_directions":"Add eggs to the skillet and cook, stirring occasionally, over medium heat until set, about 2 min. Stir in sausage mixture and top with shredded cheese."},{"recipe_directions":"Spoon onto tortillas. Fold in opposite sides of each tortilla, then roll up burrito-style."},{"recipe_directions":"Reduce the calories and fat of this recipe by preparing with turkey breakfast sausage links, 1 cup of a cholesterol-free egg product, and a low-fat shredded Cheddar cheese."},{"recipe_directions":"Follow the recipe through Step 3. Wrap each burrito individually in foil and refrigerate. To heat burritos, place into an oven preheated to 200 degrees F (95 degrees C) up to 30 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"}]</t>
         </is>
       </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"341\nCalories\n\n\n20g \nFat\n\n\n30g \nCarbs\n\n\n20g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699641406-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0IBq3k6yu0VlTOJVMleeFZfqHkA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/7575678-salsa-chicken-burrito-filling-Jordan-Burgess-1x1-1-b60bd66f6af54d71b89147a9fa65f997.jpg"
@@ -2939,59 +3112,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/22970/salsa-chicken-burrito-filling/</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Salsa Chicken Burrito Filling</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  skinless, boneless chicken breast halves\n\n\n1 (4 ounce) can tomato sauce\n\n\n¼ cup salsa\n\n\n1 (1.25 ounce) package taco seasoning mix\n\n\n1 teaspoon ground cumin\n\n\n2 cloves garlic, minced\n\n\n1 teaspoon chili powder\n\n\n  hot sauce to taste"}]</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  skinless, boneless chicken breast halves\n\n\n1 (4 ounce) can tomato sauce\n\n\n¼ cup salsa\n\n\n1 (1.25 ounce) package taco seasoning mix\n\n\n1 teaspoon ground cumin\n\n\n2 cloves garlic, minced\n\n\n1 teaspoon chili powder\n\n\n  hot sauce to taste'}]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place chicken breasts and tomato sauce in a medium saucepan over medium high heat. Bring to a boil, then add the salsa, seasoning, cumin, garlic and chili powder. Let simmer for 15 minutes."},{"recipe_directions":"With a fork, start pulling the chicken meat apart into thin strings. Keep cooking pulled chicken meat and sauce, covered, for another 5 to 10 minutes. Add hot sauce to taste and stir together (Note: You may need to add a bit of water if the mixture is cooked too high and gets too thick.)"}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"107\nCalories\n\n\n2g \nFat\n\n\n10g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699641414-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/rJdjiMa6uS3YN_WWt3mVgbMniSc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2810898-smothered-burritos-Baking-Nana-4x3-1-8a29d4829a2c40fe880c3c3f7c9fe626.jpg"
@@ -3005,59 +3174,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/245186/smothered-burritos/</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Smothered Burritos</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound ground beef\n\n\n½ cup chopped onion\n\n\n2 tablespoons chopped green chiles\n\n\n½ cup water\n\n\n1 tablespoon chili powder\n\n\n1 teaspoon salt\n\n\n1 teaspoon red pepper flakes\n\n\n½ teaspoon ground cumin\n\n\n½ teaspoon garlic powder\n\n\n1 (16 ounce) can refried beans\n\n\n1 (10.75 ounce) can  cream of mushroom soup\n\n\n½ pint sour cream\n\n\n4 large flour tortillas, or more as needed\n\n\n1 (8 ounce) package shredded Cheddar-Monterey Jack cheese blend"}]</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound ground beef\n\n\n½ cup chopped onion\n\n\n2 tablespoons chopped green chiles\n\n\n½ cup water\n\n\n1 tablespoon chili powder\n\n\n1 teaspoon salt\n\n\n1 teaspoon red pepper flakes\n\n\n½ teaspoon ground cumin\n\n\n½ teaspoon garlic powder\n\n\n1 (16 ounce) can refried beans\n\n\n1 (10.75 ounce) can  cream of mushroom soup\n\n\n½ pint sour cream\n\n\n4 large flour tortillas, or more as needed\n\n\n1 (8 ounce) package shredded Cheddar-Monterey Jack cheese blend'}]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Grease a 9x13-inch baking dish."},{"recipe_directions":"Heat a large skillet over medium-high heat. Cook and stir beef, onion, and green chiles in the hot skillet until beef is browned and crumbly, 5 to 7 minutes; drain and discard grease."},{"recipe_directions":"Add water, chili powder, salt, red pepper flakes, cumin, and garlic powder to beef mixture; bring to a boil. Reduce heat to medium-low and simmer. Stir in refried beans; cook until heated through, about 5 minutes."},{"recipe_directions":"Mix cream of mushroom soup and sour cream together in a bowl."},{"recipe_directions":"Fill each tortilla with beef mixture and roll tortilla around filling. Arrange burritos in the prepared baking dish; top with sour cream mixture."},{"recipe_directions":"Bake in the preheated oven for 20 minutes. Cover burritos with Cheddar-Monterey Jack cheese blend. Bake until cheese is melted, about 10 minutes more."}]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"1136\nCalories\n\n\n63g \nFat\n\n\n91g \nCarbs\n\n\n51g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699641420-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/El9ynTIhoeua6hA8N_whBIhCDt0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2140245-4c341a8646b845309e9e056bec0baf82.jpg"
@@ -3070,59 +3235,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/241584/fiesta-chicken-burritos/</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Fiesta Chicken Burritos</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4 \n\n\nYield:\n4 burritos"}]</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 teaspoons Gay Lea Butter\n\n\n1 pound skinless, boneless chicken breasts, cut into 1-inch cubes\n\n\n  salt and ground black pepper to taste\n\n\n2 cups shredded Ivanhoe Old Cheddar, divided\n\n\n1 cup diced green pepper\n\n\n⅔ cup Gay Lea Sour Cream\n\n\n½ cup sliced black olives (Optional)\n\n\n⅓ cup salsa\n\n\n1  jalapeno pepper, seeded and minced\n\n\n2 tablespoons chopped fresh cilantro\n\n\n4 large flour tortillas"}]</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 teaspoons Gay Lea Butter\n\n\n1 pound skinless, boneless chicken breasts, cut into 1-inch cubes\n\n\n  salt and ground black pepper to taste\n\n\n2 cups shredded Ivanhoe Old Cheddar, divided\n\n\n1 cup diced green pepper\n\n\n⅔ cup Gay Lea Sour Cream\n\n\n½ cup sliced black olives (Optional)\n\n\n⅓ cup salsa\n\n\n1  jalapeno pepper, seeded and minced\n\n\n2 tablespoons chopped fresh cilantro\n\n\n4 large flour tortillas'}]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (180 degrees C)."},{"recipe_directions":"Melt butter in a large skillet over medium-high heat. Add chicken and cook until no longer pink inside, about 8 minutes. Season with salt and pepper, then transfer to a large bowl."},{"recipe_directions":"Add 1 cup shredded cheese, bell pepper, sour cream, olives, salsa, jalapeño, and cilantro to the chicken; stir to combine."},{"recipe_directions":"Place 1/4 of the chicken mixture onto a tortilla. Fold and roll tortilla to completely enclose filling, then place it, seam-side down, in a small baking dish. Repeat to fill and roll remaining tortillas. Sprinkle the remaining cheese over top."},{"recipe_directions":"Bake in center of the preheated oven until cheese is melted and tortillas are crispy, about 20 minutes."},{"recipe_directions":"For a more indulgent option, replace Gay Lea Sour Cream with Gay Lea Gold Sour Cream or Gay Lea French Onion Sour Cream Dip."},{"recipe_directions":"Spice up your burritos by dipping them in a combination of Gay Lea Sour Cream, Dijon mustard, and lime juice."},{"recipe_directions":"Stir sour cream into guacamole to make it extra creamy."}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"}]</t>
         </is>
       </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"711\nCalories\n\n\n37g \nFat\n\n\n50g \nCarbs\n\n\n46g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699641428-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/5FAWWq_kpmrp1ywrWdKuiKCtJHQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2276941-5eab46e2c6d143a9ac5eff0493a303cb.jpg"
@@ -3135,59 +3296,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18880/garys-turkey-burritos/</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Gary's Turkey Burritos</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6 \n\n\nYield:\n6 burritos"}]</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound ground turkey\n\n\n2 (7.75 ounce) cans Mexican-style hot tomato sauce (such as El Pato®)\n\n\n1 (15.25 ounce) can whole kernel corn, drained\n\n\n½ small onion, diced\n\n\n1 (16 ounce) can fat-free refried beans\n\n\n1 (16 ounce) container fat-free sour cream\n\n\n¾ cup shredded reduced-fat Cheddar cheese\n\n\n6 (10 inch) flour tortillas"}]</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound ground turkey\n\n\n2 (7.75 ounce) cans Mexican-style hot tomato sauce (such as El Pato®)\n\n\n1 (15.25 ounce) can whole kernel corn, drained\n\n\n½ small onion, diced\n\n\n1 (16 ounce) can fat-free refried beans\n\n\n1 (16 ounce) container fat-free sour cream\n\n\n¾ cup shredded reduced-fat Cheddar cheese\n\n\n6 (10 inch) flour tortillas'}]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large skillet over medium high heat, brown ground turkey. Stir in tomato sauce, corn and onion. Reduce heat to medium and let simmer, stirring occasionally, until liquids reduce (about 20 minutes)."},{"recipe_directions":"In a separate medium skillet, heat beans over medium-low heat. Prepare sour cream and cheese for sprinkling into burritos. One by one, heat tortillas over stove burner for 1 to 2 minutes, flipping a few times. Top with beans, then meat mixture, then sour cream and cheese. Fold over and serve while still warm."}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"571\nCalories\n\n\n8g \nFat\n\n\n78g \nCarbs\n\n\n34g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699641432-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/z_bEiaZq0-8ecEiD6ywB10dQGnk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(799x644:801x646):format(webp)/84043_vegan-bean-taco-filling_Rita1-2000-4aaf96b6e5a84301a543f18ba6da3625.jpg"
@@ -3201,59 +3358,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/84043/vegan-bean-taco-filling/</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Vegan Bean Taco Filling</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil\n\n\n1  onion, diced\n\n\n2 cloves garlic, minced\n\n\n1  bell pepper, chopped\n\n\n2 (14.5 ounce) cans black beans, rinsed, drained, and mashed\n\n\n2 tablespoons yellow cornmeal\n\n\n1 ½ tablespoons cumin\n\n\n1 teaspoon paprika\n\n\n1 teaspoon cayenne pepper\n\n\n1 teaspoon chili powder\n\n\n1 cup salsa"}]</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil\n\n\n1  onion, diced\n\n\n2 cloves garlic, minced\n\n\n1  bell pepper, chopped\n\n\n2 (14.5 ounce) cans black beans, rinsed, drained, and mashed\n\n\n2 tablespoons yellow cornmeal\n\n\n1 ½ tablespoons cumin\n\n\n1 teaspoon paprika\n\n\n1 teaspoon cayenne pepper\n\n\n1 teaspoon chili powder\n\n\n1 cup salsa'}]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a medium skillet over medium heat. Stir in onion, garlic, and bell pepper; cook until tender. Stir in mashed beans. Add the cornmeal. Mix in cumin, paprika, cayenne, chili powder, and salsa. Cover, and cook 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"142\nCalories\n\n\n3g \nFat\n\n\n24g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699641435-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/WS1SdTiB5dz7oOsz1-jHNBYNDX0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/New-Mexico-Green-Chile-Burritos-Lela-1x1-1-2000-a3e3c5a153be46feb156947cb0fa267c.jpg"
@@ -3267,59 +3420,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/200257/new-mexico-green-chile-breakfast-burritos/</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>New Mexico Green Chile Breakfast Burritos</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n6 \n\n\nYield:\n6 burritos"}]</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  potatoes, shredded\n\n\n1 small onion, finely chopped\n\n\n1 clove garlic, minced\n\n\n1 (8 ounce) container frozen Hatch, New Mexico green chile peppers\n\n\n½ cup chicken broth\n\n\n12 strips bacon\n\n\n⅓ cup vegetable oil\n\n\n1 tablespoon onion powder\n\n\n  salt and pepper to taste\n\n\n6 (10 inch) flour tortillas\n\n\n  butter flavored cooking spray\n\n\n12 extra large eggs, beaten\n\n\n2 cups shredded Cheddar cheese"}]</t>
-        </is>
-      </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  potatoes, shredded\n\n\n1 small onion, finely chopped\n\n\n1 clove garlic, minced\n\n\n1 (8 ounce) container frozen Hatch, New Mexico green chile peppers\n\n\n½ cup chicken broth\n\n\n12 strips bacon\n\n\n⅓ cup vegetable oil\n\n\n1 tablespoon onion powder\n\n\n  salt and pepper to taste\n\n\n6 (10 inch) flour tortillas\n\n\n  butter flavored cooking spray\n\n\n12 extra large eggs, beaten\n\n\n2 cups shredded Cheddar cheese'}]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the shredded potatoes in a bowl, cover with water, and set aside. Bring the onion, garlic, green chiles, and chicken broth to a boil in a saucepan over high heat. Reduce the heat to low, and simmer until the sauce thickens; turn off the heat."},{"recipe_directions":"Meanwhile, place the strips of bacon on paper towels on a microwave-safe plate, and cook on High until crisp, about 1 minute per strip; set aside."},{"recipe_directions":"Heat the vegetable oil over medium-high heat in a large skillet. Drain the potatoes, and add to the skillet. Spoon hot oil over the potatoes; sprinkle with the onion powder, salt, and pepper. Flip the potatoes occasionally, but let them fry until crispy bits form and the potatoes are cooked through, about 15 minutes."},{"recipe_directions":"Place the tortillas between two damp paper towels. Microwave on High until warm, about 30 seconds."},{"recipe_directions":"Spray a separate skillet with butter flavored cooking spray and cook the eggs over medium heat, whisking them continuously until the eggs are completely set; turn off the heat."},{"recipe_directions":"Lay a tortilla flat in front of you. Place some potatoes, scrambled egg, and a strip of bacon on the lower third, leaving about an inch of room from the bottom, and about 1-1/2 inches on the left and right clear for folding the burrito. Spoon on a little of the green chile sauce, and sprinkle with Cheddar cheese."},{"recipe_directions":"Fold the left and right edges into the middle about 1-1/2 to 2 inches. Take the bottom edge closest to you with the stuffing and pick it up, pulling it OVER the filling, while keeping the sides in place until that edge now touches the tortilla about 7/8 of the way up to the top edge. Check to see that the sides are still tucked well. If they aren't slide them in a bit now that you have the filling covered. Finish by tucking the bottom flap that you pulled over the filling UNDER the filling a bit to seal it, then continue rolling the burrito up to the top edge, forming a tight cylinder. Let it rest seam-side down, and it will stay nice and tight. Repeat with remaining ingredients."}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"},{"recipe_tags":"Breakfast Burrito Recipes"}]</t>
         </is>
       </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"873\nCalories\n\n\n50g \nFat\n\n\n66g \nCarbs\n\n\n40g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699641438-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/P28cwfceL_YIvoIE9n-cldAJ3-Y=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/8300220-b92dc26a6b554e81a2acd8c4151c08f1.jpg"
@@ -3332,59 +3481,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/137576/roast-beef-burritos/</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Roast Beef Burritos</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon vegetable oil\n\n\n1  onion, chopped\n\n\n1 clove garlic, minced\n\n\n4  tomatoes, chopped\n\n\n2 cups chopped cooked roast beef\n\n\n1 (8 ounce) jar prepared taco sauce\n\n\n1 (4 ounce) can diced green chile peppers\n\n\n½ teaspoon cumin\n\n\n⅛ teaspoon red pepper flakes, or to taste (Optional)\n\n\n6 (7 inch) flour tortillas, warmed\n\n\n1 ½ cups shredded Cheddar cheese\n\n\n2 cups shredded lettuce"}]</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon vegetable oil\n\n\n1  onion, chopped\n\n\n1 clove garlic, minced\n\n\n4  tomatoes, chopped\n\n\n2 cups chopped cooked roast beef\n\n\n1 (8 ounce) jar prepared taco sauce\n\n\n1 (4 ounce) can diced green chile peppers\n\n\n½ teaspoon cumin\n\n\n⅛ teaspoon red pepper flakes, or to taste (Optional)\n\n\n6 (7 inch) flour tortillas, warmed\n\n\n1 ½ cups shredded Cheddar cheese\n\n\n2 cups shredded lettuce'}]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat the oil in a skillet over medium-high heat. Stir in the onion and garlic, and cook until tender and transparent, about 5 minutes. Mix in the tomatoes, roast beef, taco sauce, chile peppers, cumin, and red pepper flakes, if desired. Bring the mixture to a boil. Reduce heat to medium, and simmer, uncovered, for 25 minutes, or until thickened."},{"recipe_directions":"Arrange tortillas on a clean, flat work surface. Spread about 2/3 cup of beef mixture in the center of each warm tortilla. Sprinkle evenly with cheese and lettuce. Fold over ends and sides to make a package."}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"405\nCalories\n\n\n19g \nFat\n\n\n38g \nCarbs\n\n\n22g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699641443-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/aEdJW5zPQU_EsE8XkbHeUekMgwg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/392583-f403c1fb7a1247aea01efc7ffd86df73.jpg"
@@ -3397,59 +3542,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16881/burrito-pie/</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Burrito Pie</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n16 \n\n\nYield:\n16 servings"}]</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds ground beef\n\n\n1  onion, chopped\n\n\n2 teaspoons minced garlic\n\n\n1 (2 ounce) can black olives, sliced\n\n\n1 (4 ounce) can diced green chili peppers\n\n\n1 (10 ounce) can diced tomatoes with green chile peppers\n\n\n1 (16 ounce) jar taco sauce\n\n\n2 (16 ounce) cans refried beans\n\n\n12 (8 inch) flour tortillas\n\n\n9 ounces shredded Colby cheese"}]</t>
-        </is>
-      </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds ground beef\n\n\n1  onion, chopped\n\n\n2 teaspoons minced garlic\n\n\n1 (2 ounce) can black olives, sliced\n\n\n1 (4 ounce) can diced green chili peppers\n\n\n1 (10 ounce) can diced tomatoes with green chile peppers\n\n\n1 (16 ounce) jar taco sauce\n\n\n2 (16 ounce) cans refried beans\n\n\n12 (8 inch) flour tortillas\n\n\n9 ounces shredded Colby cheese'}]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"In a large skillet over medium heat, saute the ground beef for 5 minutes. Add the onion and garlic, and saute for 5 more minutes. Drain any excess fat, if desired. Mix in the olives, green chile peppers, tomatoes with green chile peppers, taco sauce and refried beans. Stir mixture thoroughly, reduce heat to low, and let simmer for 15 to 20 minutes."},{"recipe_directions":"Spread a thin layer of the meat mixture in the bottom of a 4 quart casserole dish. Cover with a layer of tortillas followed by more meat mixture, then a layer of cheese. Repeat tortilla, meat, cheese pattern until all the tortillas are used, topping off with a layer of meat mixture and cheese."},{"recipe_directions":"Bake for 20 to 30 minutes in the preheated oven, or until cheese is slightly brown and bubbly."}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"432\nCalories\n\n\n24g \nFat\n\n\n33g \nCarbs\n\n\n20g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1699641447-52</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Ya1onhtufGAWS5wItPmnWiCBoJw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(680x531:682x533):format(webp)/4413389-spicy-beef-burritos-Buckwheat-Queen-4x3-1-147f33e9324444568a8f15d8e6599aac.jpg"
@@ -3463,59 +3604,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/255276/spicy-beef-burritos/</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Spicy Beef Burritos</t>
         </is>
       </c>
-      <c r="G53" s="1" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H53" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 ounces sliced jalapeno peppers\n\n\n1  tomato, diced\n\n\n1 (4 ounce) can chopped green chile peppers\n\n\n1  green bell pepper, diced\n\n\n1  red bell pepper, diced\n\n\n1  onion, diced\n\n\n1 ½ tablespoons hot sauce\n\n\n¼ teaspoon ground cayenne pepper\n\n\n1 pound ground beef\n\n\n1 (1 ounce) package burrito seasoning\n\n\n1 (14 ounce) can refried beans\n\n\n6 (10 inch) flour tortillas\n\n\n1 (10 ounce) bag shredded lettuce\n\n\n1 (8 ounce) container sour cream\n\n\n1 (8 ounce) package shredded sharp Cheddar cheese"}]</t>
-        </is>
-      </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 ounces sliced jalapeno peppers\n\n\n1  tomato, diced\n\n\n1 (4 ounce) can chopped green chile peppers\n\n\n1  green bell pepper, diced\n\n\n1  red bell pepper, diced\n\n\n1  onion, diced\n\n\n1 ½ tablespoons hot sauce\n\n\n¼ teaspoon ground cayenne pepper\n\n\n1 pound ground beef\n\n\n1 (1 ounce) package burrito seasoning\n\n\n1 (14 ounce) can refried beans\n\n\n6 (10 inch) flour tortillas\n\n\n1 (10 ounce) bag shredded lettuce\n\n\n1 (8 ounce) container sour cream\n\n\n1 (8 ounce) package shredded sharp Cheddar cheese'}]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix jalapeno peppers, tomato, green chile peppers, green bell pepper, red bell pepper, onion, hot sauce, and cayenne pepper together in a large bowl."},{"recipe_directions":"Cook beef in a large skillet over medium-high heat, stirring to break up clumps, about 5 minutes. Drain excess grease. Add jalapeno pepper mixture and burrito seasoning; cook, covered, stirring occasionally, until flavors combine, about 10 minutes."},{"recipe_directions":"Pour refried beans into a saucepan over medium-low heat. Cook and stir until heated through, about 5 minutes."},{"recipe_directions":"Warm each tortilla in the microwave until soft, 15 to 20 seconds. Spread a layer of refried beans on top. Divide beef mixture among tortillas. Top with lettuce, sour cream, and Cheddar cheese. Fold in opposing edges of each tortilla and roll up into a burrito."}]</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"}]</t>
         </is>
       </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"723\nCalories\n\n\n39g \nFat\n\n\n60g \nCarbs\n\n\n34g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1699641452-53</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ld45JC3lvRaTNdqkx3jTmBXk3TI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/214583-SouthwestBreakfastBurritos-ddmfs-3x4-8401-156c7c8d657a4a5d9f3f393146fdafc3.jpg"
@@ -3529,59 +3666,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214583/southwest-breakfast-burritos/</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Southwest Breakfast Burritos</t>
         </is>
       </c>
-      <c r="G54" s="1" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n50 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n20 \n\n\nYield:\n20 burritos"}]</t>
         </is>
       </c>
-      <c r="H54" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"12 large eggs\n\n\n⅔ cup milk\n\n\n½ teaspoon salt\n\n\n2 tablespoons butter\n\n\n1 pound bulk pork sausage\n\n\n2 tablespoons minced garlic\n\n\n½  red onion, diced\n\n\n1  tomato, diced\n\n\n¼ cup chopped fresh cilantro\n\n\n1 (3.5 ounce) can diced jalapeños (Optional)\n\n\n1 (1 ounce) package taco seasoning\n\n\n1 ½ cups shredded Cheddar cheese\n\n\n20 (6 inch) flour tortillas"}]</t>
-        </is>
-      </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '12 large eggs\n\n\n⅔ cup milk\n\n\n½ teaspoon salt\n\n\n2 tablespoons butter\n\n\n1 pound bulk pork sausage\n\n\n2 tablespoons minced garlic\n\n\n½  red onion, diced\n\n\n1  tomato, diced\n\n\n¼ cup chopped fresh cilantro\n\n\n1 (3.5 ounce) can diced jalapeños (Optional)\n\n\n1 (1 ounce) package taco seasoning\n\n\n1 ½ cups shredded Cheddar cheese\n\n\n20 (6 inch) flour tortillas'}]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Whisk together eggs, milk, and salt in a large bowl. Heat butter in a large skillet over medium-high heat. Pour in egg mixture; cook and stir until eggs are completely set, about 5 minutes."},{"recipe_directions":"Break up cooked eggs into small pieces and place into a large bowl. Set aside."},{"recipe_directions":"Heat the same large skillet over medium heat. Cook and stir sausage and garlic in the hot skillet for 5 minutes, Add onion; continue to cook and stir until sausage is crumbly, evenly browned, and no longer pink. Drain and discard any excess grease."},{"recipe_directions":"Transfer sausage to eggs in the bowl. Stir in tomato, cilantro, jalapeños, and taco seasoning until well combined. Allow mixture to cool to room temperature, then stir in Cheddar cheese."},{"recipe_directions":"Lay a tortilla onto your work surface, then spoon some of the egg filling halfway between the bottom edge and the center of tortilla. Flatten filling into a rectangular shape with the back of a spoon. Fold the bottom of tortilla snugly over filling, then fold in the left and right edges. Roll burrito up to the top edge, forming a tight cylinder. Repeat with remaining ingredients."},{"recipe_directions":"Wrap individual burritos tightly with plastic wrap and store in the freezer until ready to serve."},{"recipe_directions":"To serve, heat burritos in the microwave until hot, 3 to 4 minutes."},{"recipe_directions":"You can also store the burritos in the refrigerator."}]</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"},{"recipe_tags":"Breakfast Burrito Recipes"}]</t>
         </is>
       </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"296\nCalories\n\n\n19g \nFat\n\n\n19g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1699641457-54</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/FnQ-R609miMxsre953BAU5zxWew=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1003539-black-bean-and-rice-burritos-Sherri-4x3-1-40e32c19b6aa4c13837ff4d93ff8b7f4.jpg"
@@ -3595,59 +3728,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/230975/black-bean-and-rice-burritos/</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Black Bean and Rice Burritos</t>
         </is>
       </c>
-      <c r="G55" s="1" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n8 \n\n\nYield:\n8 burritos"}]</t>
         </is>
       </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups water\n\n\n1 cup white rice\n\n\n2 tablespoons butter\n\n\n½  sweet yellow onion, chopped\n\n\n2 cloves garlic, minced\n\n\n1 tablespoon chili powder, or more to taste \n\n\n1 tablespoon paprika\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon freshly cracked black pepper\n\n\n1 teaspoon cayenne pepper\n\n\n¼ teaspoon ground cloves\n\n\n¼ teaspoon freshly ground nutmeg\n\n\n1 (15 ounce) can black beans, drained\n\n\n1 (8 ounce) can tomato sauce\n\n\n2 tablespoons chopped fresh cilantro\n\n\n8 large flour tortillas, warmed"}]</t>
-        </is>
-      </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups water\n\n\n1 cup white rice\n\n\n2 tablespoons butter\n\n\n½  sweet yellow onion, chopped\n\n\n2 cloves garlic, minced\n\n\n1 tablespoon chili powder, or more to taste \n\n\n1 tablespoon paprika\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon freshly cracked black pepper\n\n\n1 teaspoon cayenne pepper\n\n\n¼ teaspoon ground cloves\n\n\n¼ teaspoon freshly ground nutmeg\n\n\n1 (15 ounce) can black beans, drained\n\n\n1 (8 ounce) can tomato sauce\n\n\n2 tablespoons chopped fresh cilantro\n\n\n8 large flour tortillas, warmed'}]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring water and rice to a boil in a saucepan over high heat. Reduce the heat to medium-low, cover, and simmer until rice is tender and liquid has been absorbed, 20 to 25 minutes."},{"recipe_directions":"Meanwhile, melt 1 tablespoon butter in a large skillet over medium heat. Cook and stir onion and garlic in melted butter until onion is translucent, 5 to 6 minutes. Add remaining 1 tablespoon butter and let melt. Stir in chili powder, paprika, cumin, black pepper, cayenne pepper, cloves, and nutmeg; cook, stirring often, for 2 more minutes."},{"recipe_directions":"Stir in black beans and tomato sauce, then bring to a simmer. Reduce the heat to low and cook until flavors blend, about 10 minutes. Remove from the heat and stir in cilantro. Let sit until cilantro wilts, about 5 minutes."},{"recipe_directions":"Fill warm tortillas with bean mixture and rice."}]</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"428\nCalories\n\n\n10g \nFat\n\n\n73g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>1699641463-55</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/SnmW-sTC4UeigpiTwI67Ngr1Fgk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1295x0:1297x2):format(webp)/8245563-df4c1b31ad504ecfab7ed95f9324a3a3.jpg"
@@ -3660,59 +3789,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13954/addictive-sweet-potato-burritos/</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Sweet Potato Burritos</t>
         </is>
       </c>
-      <c r="G56" s="1" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n12 \n\n\nYield:\n12 burritos"}]</t>
         </is>
       </c>
-      <c r="H56" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon vegetable oil\n\n\n1  onion, chopped\n\n\n4 cloves garlic, minced\n\n\n6 cups canned kidney beans, drained\n\n\n2 cups water\n\n\n3 tablespoons soy sauce\n\n\n3 tablespoons chili powder\n\n\n4 teaspoons prepared mustard\n\n\n2 teaspoons ground cumin\n\n\n1 pinch cayenne pepper, or to taste\n\n\n4 cups mashed cooked sweet potatoes\n\n\n12 (10 inch) flour tortillas, warmed\n\n\n8 ounces shredded Cheddar cheese"}]</t>
-        </is>
-      </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon vegetable oil\n\n\n1  onion, chopped\n\n\n4 cloves garlic, minced\n\n\n6 cups canned kidney beans, drained\n\n\n2 cups water\n\n\n3 tablespoons soy sauce\n\n\n3 tablespoons chili powder\n\n\n4 teaspoons prepared mustard\n\n\n2 teaspoons ground cumin\n\n\n1 pinch cayenne pepper, or to taste\n\n\n4 cups mashed cooked sweet potatoes\n\n\n12 (10 inch) flour tortillas, warmed\n\n\n8 ounces shredded Cheddar cheese'}]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Heat oil in a medium skillet. Cook and stir onion and garlic in hot oil until onion is soft. Mash beans into onion mixture. Gradually stir in water; heat until warm, 2 to 3 minutes. Remove from heat and stir in soy sauce, chili powder, mustard, cumin, and cayenne pepper."},{"recipe_directions":"Divide bean mixture and mashed sweet potatoes evenly between warm tortillas; top with cheese. Fold tortillas, burrito-style, around fillings and place on a baking sheet."},{"recipe_directions":"Bake in the preheated oven until warmed through, about 12 minutes."}]</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K56" s="1" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"505\nCalories\n\n\n9g \nFat\n\n\n77g \nCarbs\n\n\n20g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>1699641467-56</t>
         </is>
       </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/VkRg-EBnIHK8nP9l3jy9QHdzXMU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/727143-f9bddfcb5028406699fd340d15bead19.jpg"
@@ -3725,59 +3850,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E57" s="1" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/76464/chorizo-breakfast-burritos/</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Chorizo Breakfast Burritos</t>
         </is>
       </c>
-      <c r="G57" s="1" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 burritos"}]</t>
         </is>
       </c>
-      <c r="H57" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n¾ pound chorizo sausage, casings removed and crumbled\n\n\n½ cup chopped red onion\n\n\n1  green chile pepper, seeded and diced\n\n\n4 large eggs\n\n\n4  flour tortillas\n\n\n1 cup shredded Cheddar cheese"}]</t>
-        </is>
-      </c>
-      <c r="I57" s="1" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n¾ pound chorizo sausage, casings removed and crumbled\n\n\n½ cup chopped red onion\n\n\n1  green chile pepper, seeded and diced\n\n\n4 large eggs\n\n\n4  flour tortillas\n\n\n1 cup shredded Cheddar cheese'}]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Generously coat a large frying pan with cooking spray. Cook and stir chorizo in the prepared pan over medium-high heat until well browned and crumbled. Add onion and chile pepper; continue cooking, stirring occasionally, until onion is tender."},{"recipe_directions":"Beat eggs in a medium bowl and add to chorizo mixture. Reduce heat to medium-low; continue cooking and stirring until eggs are scrambled and no longer runny."},{"recipe_directions":"Warm flour tortillas in the microwave for 30 seconds. Spoon chorizo-egg mixture into the middle of each tortilla and top with shredded Cheddar cheese. Roll up like a burrito."}]</t>
         </is>
       </c>
-      <c r="J57" s="1" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"},{"recipe_tags":"Breakfast Burrito Recipes"}]</t>
         </is>
       </c>
-      <c r="K57" s="1" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"822\nCalories\n\n\n54g \nFat\n\n\n43g \nCarbs\n\n\n40g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>1699641473-57</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BKFMtdePnybuyuRSPF9jSGdDGPc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(299x0:301x2):format(webp)/441338920Spicy20Beef20Burritos20Photo20by20Buckwheat20Queen20600x600-595ad35a95df4008a668a86b4bd0f9c4.jpg"
@@ -3789,59 +3910,55 @@
 10 Best Burrito Recipes</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/article/our-best-burrito-recipes/</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>10 Best Burrito Recipes</t>
         </is>
       </c>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H58" s="1" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Burritos are the best. They're quick, they're easy, they're a complete meal contained in a handy wrap. These top-rated burrito recipes are some of our very favorite Mexican and Tex-Mex recipes. We'll start with a couple classics and then venture into the adventurous, with tasty takes on the burrito theme, including cheeseburger burritos. We even saved room for pie -- burrito pie. For more, don't miss our 15 best beefy Tex-Mex recipes."},{"recipe_directions":"1. Spicy Beef Burritos"},{"recipe_directions":"These spicy homemade burritos combine refried beans and seasoned ground beef with fresh peppers. \"My family went crazy over these burritos!\" raves doed. \"Perfect for our Cinco de Mayo party, I would not change anything. Totally YUMMY dinner!\""},{"recipe_directions":"2. Rick's Big Bad Bean Burrito"},{"recipe_directions":"Vegetarian refried beans, avocado slices, and pico de gallo add up to one hearty veggie burrito. \"Nothing fancy, nothing left out,\" says danielti. \"Just a good solid burrito.\""},{"recipe_directions":"3. Salsa Chicken Burrito Filling"},{"recipe_directions":"This standard burrito filling features shredded chicken simmered with tomato sauce, salsa, and seasonings. \"Quick, easy burrito/taco filling that is delicious and freezes great!\" says JUBEEFISH. \"I serve this with tortillas, shredded Cheddar cheese, and little sour cream. You could fill the tortillas and put them all in a baking dish and then cover with salsa and cheese and bake for about 10 minutes, if you don't want a mess at the table.\""},{"recipe_directions":"4. Fabulous Wet Burritos"},{"recipe_directions":"Flour tortillas are filled with a mixture of ground beef, refried beans, and chiles then topped with a generous amount of sauce and cheese. \"Very easy, yet very good wet burritos,\" says Cindy Newell. \"I got this recipe from a friend, and everyone I serve them to asks for the recipe. Serve with guacamole, sour cream and salsa.\""},{"recipe_directions":"5. Delicious Black Bean Burritos"},{"recipe_directions":"Black beans and cilantro combine with onions, bell peppers and jalapenos and cubes of cream cheese. \"I love this recipe,\" says KRISTYKLEIN. \"It is so quick and easy and it is delicous! My husband loves it. I like to have the burritos with some diced plum tomatoes in them.\""},{"recipe_directions":"6. Easy Cheeseburger Burritos"},{"recipe_directions":"Tortillas are stuffed with seasoned ground beef and a blend of Mexican cheeses and baked, then served with an easy sauce. \"My 7-year-old daughter requested cheeseburger tacos for dinner one night, so I created this and all the kids loved it!\" says Lisa Altmiller. \"Serve with hamburger toppings on the side. This is a very kid friendly recipe!\""},{"recipe_directions":"7. Black Bean and Rice Burritos"},{"recipe_directions":"These tasty burritos are filled with seasoned black beans and rice and garnished with your favorite burrito extras -- Cheddar and Monterey Jack cheeses, lettuce, and sour cream. They're also easy on the budget. \"An easy and expandable burrito base,\" says Bobikel. \"Add bacon, avocado, pico de gallo, or whatever you wish. Wrap, eat, and be happy.\""},{"recipe_directions":"8. Addictive Sweet Potato Burritos"},{"recipe_directions":"Here's a top-rated vegetarian burrito with sweet potatoes, spices and kidney beans. \"The recipe is a little different from most burrito recipes,\" says Karena. but once you've had one, you'll want another. Serve these with sour cream, chopped green onions, and salsa.\""},{"recipe_directions":"9. Smothered Burritos"},{"recipe_directions":"Ground beef and refried bean burritos are baked under a creamy sauce and topped with cheese. \"My picky sweetheart and I REALLY liked this recipe,\" says Shellee. \"I did not make any changes except to add chili sauce as an option at the table since we enjoy spicy food. I was very curious as to how the cream of mushroom sauce would taste on the burrito."},{"recipe_directions":"10. Burrito Pie"},{"recipe_directions":"Ground beef, refried beans, and tomatoes are seasoned with chiles and taco sauce, then layered in a casserole with tortillas and cheese. \"This is a lot like a lasagna,\" says KATHIMC, \"only Mexican-style. Serve like a pie and garnish with sour cream, salsa, lettuce and tomato.\""},{"recipe_directions":"Check out our collection of Burrito Recipes. And once you've found your burrito recipe, find out how to fold the perfect burrito."}]</t>
         </is>
       </c>
-      <c r="J58" s="1" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Burrito Recipes"}]</t>
         </is>
       </c>
-      <c r="K58" s="1" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>1699641476-58</t>
         </is>
       </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/dXc1bF_J4D4BS6i7c7aut_gIX8g=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(749x0:751x2):format(webp)/8538304_Chicken-Fajita-Burrito_thedailygourmet_1x1-7c53c2904ea7419ea9605cce9bba6d9f.jpg"
@@ -3855,59 +3972,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/8538304/chicken-fajita-burrito/</t>
         </is>
       </c>
-      <c r="F59" s="1" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Chicken Fajita Burrito</t>
         </is>
       </c>
-      <c r="G59" s="1" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nMarinate Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 40 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H59" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"10 ounces skinless, boneless chicken breasts, cut into thin strips\n\n\n½  onion, cut into strips\n\n\n5 ounces multi-colored bell pepper strips\n\n\n2 tablespoons vegetable oil\n\n\n½  lime, juiced\n\n\n2 tablespoons fajita seasoning\n\n\n4 (12 inch) flour tortillas\n\n\n1 cup refried beans, warmed\n\n\n⅔ cup shredded Cheddar cheese\n\n\n1 ½ cups cooked Mexican rice\n\n\n¼ cup sour cream\n\n\n⅓ cup guacamole"}]</t>
-        </is>
-      </c>
-      <c r="I59" s="1" t="inlineStr">
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '10 ounces skinless, boneless chicken breasts, cut into thin strips\n\n\n½  onion, cut into strips\n\n\n5 ounces multi-colored bell pepper strips\n\n\n2 tablespoons vegetable oil\n\n\n½  lime, juiced\n\n\n2 tablespoons fajita seasoning\n\n\n4 (12 inch) flour tortillas\n\n\n1 cup refried beans, warmed\n\n\n⅔ cup shredded Cheddar cheese\n\n\n1 ½ cups cooked Mexican rice\n\n\n¼ cup sour cream\n\n\n⅓ cup guacamole'}]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place chicken, onion, bell pepper, oil, lime juice, and fajita seasoning in a resealable plastic bag. Seal the bag and squeeze to ensure all ingredients are combined and well-coated; place in the refrigerator to marinate for 2 hours."},{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C). Line a sheet pan with foil. Spread fajita mixture onto sheet pan in a single layer."},{"recipe_directions":"Bake in the preheated oven until chicken juices run clear, about 25 minutes. An instant-read thermometer inserted into the chicken strips should read 165 degrees F (74 degrees C)."},{"recipe_directions":"Wrap tortillas in a damp paper towel, and warm in the microwave until soft and pliable, about 30 seconds. To assemble burritos, spread 1/4 of each of the refried beans, cheese, rice, fajita mixture, sour cream, and guacamole in a line across the middle of each tortilla."},{"recipe_directions":"Fold opposing sides of the tortilla in, overlapping the filling. Roll the bottom edge up tightly around the filling, then roll the burrito away from you, keeping the sides folded in."},{"recipe_directions":"Feel free to use frozen fajita vegetables. Allow vegetables to thaw before adding to marinade."}]</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Burrito Recipes"}]</t>
         </is>
       </c>
-      <c r="K59" s="1" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"792\nCalories\n\n\n29g \nFat\n\n\n95g \nCarbs\n\n\n37g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>1699641482-59</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BkrwNIjG4IHSF4HRWf0Rkv5G13U=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/922970-8c22d6f6444c4a74bbe8698cb810ab17.jpg"
@@ -3920,59 +4033,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E60" s="1" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/229057/easy-mexican-pork-burritos/</t>
         </is>
       </c>
-      <c r="F60" s="1" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Easy Mexican Pork Burritos</t>
         </is>
       </c>
-      <c r="G60" s="1" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 2 hrs 45 mins\n\n\nTotal Time:\n 3 hrs 15 mins\n\n\nServings:\n10 \n\n\nYield:\n20 burritos"}]</t>
         </is>
       </c>
-      <c r="H60" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 pounds pork butt roast with bone\n\n\n1 medium onion, sliced\n\n\n6 cloves garlic, chopped\n\n\n2 (1.25 ounce) packages taco seasoning mix, divided\n\n\n1 (16 ounce) can refried beans\n\n\n1 (14.5 ounce) can diced tomatoes\n\n\n1 (4 ounce) can chopped green chiles, or to taste\n\n\n1 (16 ounce) package shredded Cheddar cheese\n\n\n20 (8 inch) flour tortillas\n\n\n¼ cup vegetable oil"}]</t>
-        </is>
-      </c>
-      <c r="I60" s="1" t="inlineStr">
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 pounds pork butt roast with bone\n\n\n1 medium onion, sliced\n\n\n6 cloves garlic, chopped\n\n\n2 (1.25 ounce) packages taco seasoning mix, divided\n\n\n1 (16 ounce) can refried beans\n\n\n1 (14.5 ounce) can diced tomatoes\n\n\n1 (4 ounce) can chopped green chiles, or to taste\n\n\n1 (16 ounce) package shredded Cheddar cheese\n\n\n20 (8 inch) flour tortillas\n\n\n¼ cup vegetable oil'}]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place pork roast, onion, and garlic into a large pot. Sprinkle one package taco seasoning over top and add enough water to cover roast. Set over medium-high heat and bring to a boil. Reduce the heat to medium-low and simmer until meat is tender and can be pulled apart with a fork, 2 to 3 hours. Check water level every 45 minutes, adding more as needed. Carefully transfer roast to a cutting board. Discard vegetables, but reserve about 1 cup cooking liquid."},{"recipe_directions":"Shred pork with a fork, discarding any excess fat. Place pork into a mixing bowl with refried beans, tomatoes, refried beans, chiles, and remaining taco seasoning. Mix until well combined, adding reserved cooking liquid if mixture is too dry."},{"recipe_directions":"Spread pork mixture evenly down the center of each tortilla, then sprinkle with Cheddar cheese. Fold the bottom and top edges of each tortilla over the filling, then roll from one side to form a burrito."},{"recipe_directions":"Heat 2 tablespoons oil in a large skillet over medium heat. Place two burritos into the hot oil with the seams facing down. Fry until golden, about 2 minutes. flip and repeat on the other side. Drain on a paper towel-lined plate. Continue to fry remaining burritos in batches of two."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. Amount will vary depending on cooking time and temperature, ingredient density, and specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J60" s="1" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Burrito Recipes"}]</t>
         </is>
       </c>
-      <c r="K60" s="1" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"832\nCalories\n\n\n39g \nFat\n\n\n71g \nCarbs\n\n\n44g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>1699641487-60</t>
         </is>
       </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/wvqgcdyknNVA3iJZadSBnzctunM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/7561794_Leftover-Steak-Burrito_Yoly_4x3-afb91b5eb7444a6697a270d940be8761.jpg"
@@ -3986,59 +4095,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E61" s="1" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/steak-burrito-recipe-7561794</t>
         </is>
       </c>
-      <c r="F61" s="1" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Steak Burrito</t>
         </is>
       </c>
-      <c r="G61" s="1" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="H61" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (10-inch) flour tortilla\n\n\n3/4 cup cubed, cooked ribeye steak, warmed\n\n\n1/4 cup Mexican rice, heated\n\n\n1/4 cup pinto beans, heated\n\n\n1/4 cup shredded Cheddar cheese\n\n\n1 tablespoon diced onion\n\n\n1 tablespoon chopped cilantro"}]</t>
-        </is>
-      </c>
-      <c r="I61" s="1" t="inlineStr">
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (10-inch) flour tortilla\n\n\n3/4 cup cubed, cooked ribeye steak, warmed\n\n\n1/4 cup Mexican rice, heated\n\n\n1/4 cup pinto beans, heated\n\n\n1/4 cup shredded Cheddar cheese\n\n\n1 tablespoon diced onion\n\n\n1 tablespoon chopped cilantro'}]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Fold a paper towel around tortilla. Microwave on High until pliable, 5 to 10 seconds."},{"recipe_directions":"Lay tortilla flat on a plate. Layer steak, rice, beans, cheese, onion, and cilantro in a line across the middle of the tortilla. Fold opposing edges of the tortilla to overlap the filling. Roll 1 of the opposing edges around the filling and tuck tortilla to form a burrito."}]</t>
         </is>
       </c>
-      <c r="J61" s="1" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Burrito Recipes"}]</t>
         </is>
       </c>
-      <c r="K61" s="1" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"2456\nCalories\n\n\n83g \nFat\n\n\n321g \nCarbs\n\n\n101g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>1699641491-61</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1216/world-cuisine/latin-american/mexican/main-dishes/burritos/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/qLGkrFq4qUUkg8I7zZojkd-aojI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/14041-delicious-black-bean-burritos-ddmfs-3x2-008-7fbf871b145f4f35a45650ee903fce73.jpg"
@@ -4052,42 +4157,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14041/delicious-black-bean-burritos/</t>
         </is>
       </c>
-      <c r="F62" s="1" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Delicious Black Bean Burritos</t>
         </is>
       </c>
-      <c r="G62" s="1" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H62" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (10 inch) flour tortillas\n\n\n2 tablespoons vegetable oil\n\n\n1 small onion, chopped\n\n\n½  red bell pepper, chopped\n\n\n1 teaspoon minced garlic\n\n\n1 teaspoon minced jalapeno peppers\n\n\n1 (15 ounce) can black beans, rinsed and drained\n\n\n3 ounces cream cheese, cubed\n\n\n½ teaspoon salt\n\n\n2 tablespoons chopped fresh cilantro"}]</t>
-        </is>
-      </c>
-      <c r="I62" s="1" t="inlineStr">
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (10 inch) flour tortillas\n\n\n2 tablespoons vegetable oil\n\n\n1 small onion, chopped\n\n\n½  red bell pepper, chopped\n\n\n1 teaspoon minced garlic\n\n\n1 teaspoon minced jalapeno peppers\n\n\n1 (15 ounce) can black beans, rinsed and drained\n\n\n3 ounces cream cheese, cubed\n\n\n½ teaspoon salt\n\n\n2 tablespoons chopped fresh cilantro'}]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients. Preheat the oven to 350 degrees F (175 degrees C). Wrap tortillas in foil."},{"recipe_directions":"Bake wrapped tortillas in the preheated oven until heated through, about 15 minutes."},{"recipe_directions":"Meanwhile, heat oil in a 10-inch skillet over medium heat. Add onion, bell pepper, garlic, and jalapeño; cook and stir for 2 minutes."},{"recipe_directions":"Stir in beans and cook until heated through, about 3 minutes. Stir in cream cheese and salt; cook, stirring occasionally, for 2 minutes. Stir in cilantro."},{"recipe_directions":"Spoon filling in a line across the middle of each tortilla. Fold opposing edges of the tortilla to overlap the filling. Roll 1 of the opposing edges around the filling creating a burrito. Serve immediately."}]</t>
         </is>
       </c>
-      <c r="J62" s="1" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K62" s="1" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"692\nCalories\n\n\n36g \nFat\n\n\n70g \nCarbs\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>